--- a/pages/猫咪档案.xlsx
+++ b/pages/猫咪档案.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518B40F5-C2B5-4010-A810-CB4C7616EA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F200EC-8849-4283-8A38-A11F9C8A46CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="校内喵" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="211">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -844,6 +844,35 @@
   <si>
     <t>贪吃，可以撸给吃的就亲人，饿了就喵喵叫，不太怕人，懒洋洋的</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼呼</t>
+  </si>
+  <si>
+    <t>狸花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>送养</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲人，粘人，因为很爱打呼取名呼呼，跟咪咪长得很像。</t>
+  </si>
+  <si>
+    <t>黄仔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>送养</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲人，还是一只小猫，后腿有旧伤，曾经骨折过，骨头已经长变形，走路以后永远一瘸一拐。</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1218,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1366,6 +1395,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1387,30 +1441,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="20% - 着色 2" xfId="1" builtinId="34"/>
@@ -1712,9 +1743,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y20" sqref="Y20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U51" sqref="U51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1773,22 +1804,22 @@
       <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="15"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="68"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="77"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="72"/>
+      <c r="K3" s="66"/>
       <c r="L3" s="17"/>
       <c r="M3" s="18" t="s">
         <v>19</v>
@@ -1812,7 +1843,7 @@
       <c r="T3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="64" t="s">
+      <c r="U3" s="73" t="s">
         <v>35</v>
       </c>
       <c r="V3" s="14" t="s">
@@ -1863,7 +1894,7 @@
       <c r="T4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="65"/>
+      <c r="U4" s="74"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="31" t="s">
@@ -1875,20 +1906,20 @@
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="64"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="33" t="s">
@@ -1906,7 +1937,7 @@
       <c r="T5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="65"/>
+      <c r="U5" s="74"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -1936,7 +1967,7 @@
       <c r="T6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="74" t="s">
         <v>36</v>
       </c>
       <c r="V6" s="14" t="s">
@@ -1990,7 +2021,7 @@
       <c r="T7" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="65"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="29">
@@ -2029,7 +2060,7 @@
       <c r="T8" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="65" t="s">
+      <c r="U8" s="74" t="s">
         <v>37</v>
       </c>
       <c r="V8" s="11"/>
@@ -2070,7 +2101,7 @@
       <c r="T9" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="65"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="29">
@@ -2098,7 +2129,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="62" t="s">
+      <c r="P10" s="71" t="s">
         <v>71</v>
       </c>
       <c r="Q10" s="40" t="s">
@@ -2144,7 +2175,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="63"/>
+      <c r="P11" s="72"/>
       <c r="Q11" s="44"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
@@ -3046,7 +3077,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="26">
         <v>21</v>
       </c>
@@ -3084,7 +3115,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="26">
         <v>22</v>
       </c>
@@ -3119,7 +3150,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="26">
         <v>23</v>
       </c>
@@ -3157,7 +3188,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="26">
         <v>24</v>
       </c>
@@ -3192,7 +3223,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="26">
         <v>25</v>
       </c>
@@ -3230,7 +3261,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="26">
         <v>26</v>
       </c>
@@ -3265,7 +3296,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="26">
         <v>27</v>
       </c>
@@ -3303,7 +3334,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="26">
         <v>28</v>
       </c>
@@ -3338,7 +3369,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="26">
         <v>29</v>
       </c>
@@ -3372,8 +3403,9 @@
       <c r="S41" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U41" s="62"/>
+    </row>
+    <row r="42" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="26">
         <v>30</v>
       </c>
@@ -3408,7 +3440,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="26">
         <v>31</v>
       </c>
@@ -3443,7 +3475,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="26">
         <v>32</v>
       </c>
@@ -3481,7 +3513,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="45" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="26">
         <v>33</v>
       </c>
@@ -3515,8 +3547,9 @@
       <c r="S45" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U45" s="55"/>
+    </row>
+    <row r="46" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="26">
         <v>34</v>
       </c>
@@ -3551,8 +3584,70 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="26">
+        <v>35</v>
+      </c>
+      <c r="C47" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="11">
+        <v>2</v>
+      </c>
+      <c r="F47" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="I47" s="35">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="K47" s="11">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s">
+        <v>206</v>
+      </c>
+      <c r="U47" s="78">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="26">
+        <v>36</v>
+      </c>
+      <c r="C48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" s="11">
+        <v>2</v>
+      </c>
+      <c r="F48" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="O48">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s">
+        <v>210</v>
+      </c>
+      <c r="U48" s="78">
+        <v>44540</v>
+      </c>
+    </row>
     <row r="49" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="50" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="51" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
@@ -4103,15 +4198,15 @@
   </sheetData>
   <autoFilter ref="A12:T112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="P10:P11"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pages/猫咪档案.xlsx
+++ b/pages/猫咪档案.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F200EC-8849-4283-8A38-A11F9C8A46CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F4FA1C-93BE-4A67-8350-417CFE1AD8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1218,7 +1218,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1396,6 +1396,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1426,22 +1442,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="20% - 着色 2" xfId="1" builtinId="34"/>
@@ -1743,9 +1744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U51" sqref="U51"/>
+      <selection pane="bottomLeft" activeCell="U48" sqref="U48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1804,22 +1805,22 @@
       <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="64"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="15"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="77"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="66"/>
+      <c r="K3" s="72"/>
       <c r="L3" s="17"/>
       <c r="M3" s="18" t="s">
         <v>19</v>
@@ -1843,7 +1844,7 @@
       <c r="T3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="73" t="s">
+      <c r="U3" s="64" t="s">
         <v>35</v>
       </c>
       <c r="V3" s="14" t="s">
@@ -1894,7 +1895,7 @@
       <c r="T4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="74"/>
+      <c r="U4" s="65"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="31" t="s">
@@ -1906,20 +1907,20 @@
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="64"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="70"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="33" t="s">
@@ -1937,7 +1938,7 @@
       <c r="T5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="74"/>
+      <c r="U5" s="65"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -1967,7 +1968,7 @@
       <c r="T6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="65" t="s">
         <v>36</v>
       </c>
       <c r="V6" s="14" t="s">
@@ -2021,7 +2022,7 @@
       <c r="T7" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="74"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="29">
@@ -2060,7 +2061,7 @@
       <c r="T8" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="74" t="s">
+      <c r="U8" s="65" t="s">
         <v>37</v>
       </c>
       <c r="V8" s="11"/>
@@ -2101,7 +2102,7 @@
       <c r="T9" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="74"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="29">
@@ -2129,7 +2130,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="71" t="s">
+      <c r="P10" s="77" t="s">
         <v>71</v>
       </c>
       <c r="Q10" s="40" t="s">
@@ -2175,7 +2176,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="72"/>
+      <c r="P11" s="78"/>
       <c r="Q11" s="44"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
@@ -3615,8 +3616,8 @@
       <c r="S47" t="s">
         <v>206</v>
       </c>
-      <c r="U47" s="78">
-        <v>44513</v>
+      <c r="U47" s="79">
+        <v>44501</v>
       </c>
     </row>
     <row r="48" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
@@ -3644,7 +3645,7 @@
       <c r="S48" t="s">
         <v>210</v>
       </c>
-      <c r="U48" s="78">
+      <c r="U48" s="63">
         <v>44540</v>
       </c>
     </row>
@@ -4198,6 +4199,7 @@
   </sheetData>
   <autoFilter ref="A12:T112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
+    <mergeCell ref="P10:P11"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="U8:U9"/>
@@ -4206,7 +4208,6 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="P10:P11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pages/猫咪档案.xlsx
+++ b/pages/猫咪档案.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F4FA1C-93BE-4A67-8350-417CFE1AD8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D894B004-B982-4473-8E6D-E463649CA567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -879,8 +879,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1218,7 +1219,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1396,7 +1397,37 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1412,37 +1443,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="20% - 着色 2" xfId="1" builtinId="34"/>
@@ -1744,9 +1744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U48" sqref="U48"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1805,22 +1805,22 @@
       <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="15"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="68"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="72"/>
+      <c r="K3" s="67"/>
       <c r="L3" s="17"/>
       <c r="M3" s="18" t="s">
         <v>19</v>
@@ -1844,7 +1844,7 @@
       <c r="T3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="64" t="s">
+      <c r="U3" s="74" t="s">
         <v>35</v>
       </c>
       <c r="V3" s="14" t="s">
@@ -1895,7 +1895,7 @@
       <c r="T4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="65"/>
+      <c r="U4" s="75"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="31" t="s">
@@ -1907,20 +1907,20 @@
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="70"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="65"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="33" t="s">
@@ -1938,7 +1938,7 @@
       <c r="T5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="65"/>
+      <c r="U5" s="75"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -1968,7 +1968,7 @@
       <c r="T6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="75" t="s">
         <v>36</v>
       </c>
       <c r="V6" s="14" t="s">
@@ -2022,7 +2022,7 @@
       <c r="T7" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="65"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="29">
@@ -2061,7 +2061,7 @@
       <c r="T8" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="65" t="s">
+      <c r="U8" s="75" t="s">
         <v>37</v>
       </c>
       <c r="V8" s="11"/>
@@ -2102,7 +2102,7 @@
       <c r="T9" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="65"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="29">
@@ -2130,7 +2130,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="77" t="s">
+      <c r="P10" s="72" t="s">
         <v>71</v>
       </c>
       <c r="Q10" s="40" t="s">
@@ -2176,7 +2176,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="78"/>
+      <c r="P11" s="73"/>
       <c r="Q11" s="44"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
@@ -3599,7 +3599,7 @@
         <v>204</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" s="35">
         <v>0</v>
@@ -3616,8 +3616,8 @@
       <c r="S47" t="s">
         <v>206</v>
       </c>
-      <c r="U47" s="79">
-        <v>44501</v>
+      <c r="U47" s="63">
+        <v>44513</v>
       </c>
     </row>
     <row r="48" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4199,7 +4199,6 @@
   </sheetData>
   <autoFilter ref="A12:T112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
-    <mergeCell ref="P10:P11"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="U8:U9"/>
@@ -4208,6 +4207,7 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
+    <mergeCell ref="P10:P11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pages/猫咪档案.xlsx
+++ b/pages/猫咪档案.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D894B004-B982-4473-8E6D-E463649CA567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102E7D2B-205F-4303-B02A-F6B16FCCEB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="213">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -374,9 +374,6 @@
     <t>更多</t>
   </si>
   <si>
-    <t>请按照严格按照格式书写</t>
-  </si>
-  <si>
     <t>请按照x年x月x日格式填写，并且需要在个位数前加0</t>
   </si>
   <si>
@@ -874,14 +871,25 @@
   <si>
     <t>亲人，还是一只小猫，后腿有旧伤，曾经骨折过，骨头已经长变形，走路以后永远一瘸一拐。</t>
   </si>
+  <si>
+    <t>2021年12月10日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年11月13日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请按照严格按照格式书写 单元格格式设置为文本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1397,7 +1405,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1422,27 +1450,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="20% - 着色 2" xfId="1" builtinId="34"/>
@@ -1744,9 +1752,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V53" sqref="V53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1805,22 +1813,22 @@
       <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="65"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="15"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="67"/>
+      <c r="K3" s="73"/>
       <c r="L3" s="17"/>
       <c r="M3" s="18" t="s">
         <v>19</v>
@@ -1844,7 +1852,7 @@
       <c r="T3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="74" t="s">
+      <c r="U3" s="65" t="s">
         <v>35</v>
       </c>
       <c r="V3" s="14" t="s">
@@ -1895,7 +1903,7 @@
       <c r="T4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="75"/>
+      <c r="U4" s="66"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="31" t="s">
@@ -1907,20 +1915,20 @@
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="65"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="71"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="33" t="s">
@@ -1938,7 +1946,7 @@
       <c r="T5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="75"/>
+      <c r="U5" s="66"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -1968,7 +1976,7 @@
       <c r="T6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="66" t="s">
         <v>36</v>
       </c>
       <c r="V6" s="14" t="s">
@@ -1982,13 +1990,13 @@
         <v>49</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB6" s="9" t="s">
         <v>50</v>
       </c>
       <c r="AC6" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -2022,7 +2030,7 @@
       <c r="T7" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="75"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="29">
@@ -2061,7 +2069,7 @@
       <c r="T8" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="75" t="s">
+      <c r="U8" s="66" t="s">
         <v>37</v>
       </c>
       <c r="V8" s="11"/>
@@ -2093,7 +2101,7 @@
         <v>68</v>
       </c>
       <c r="Q9" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R9" s="11"/>
       <c r="S9" s="29">
@@ -2102,7 +2110,7 @@
       <c r="T9" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="75"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="29">
@@ -2130,7 +2138,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="72" t="s">
+      <c r="P10" s="63" t="s">
         <v>71</v>
       </c>
       <c r="Q10" s="40" t="s">
@@ -2171,18 +2179,18 @@
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M11" s="17"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="73"/>
+      <c r="P11" s="64"/>
       <c r="Q11" s="44"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
       <c r="U11" s="43" t="s">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
@@ -2230,7 +2238,7 @@
         <v>39</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>26</v>
@@ -2263,7 +2271,7 @@
         <v>58</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="15.6" x14ac:dyDescent="0.35">
@@ -2272,28 +2280,28 @@
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="F13" s="60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="11">
         <v>4</v>
       </c>
       <c r="H13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="45">
+        <v>0</v>
+      </c>
+      <c r="J13" s="46" t="s">
         <v>83</v>
-      </c>
-      <c r="I13" s="45">
-        <v>0</v>
-      </c>
-      <c r="J13" s="46" t="s">
-        <v>84</v>
       </c>
       <c r="K13" s="11">
         <v>1</v>
@@ -2308,7 +2316,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
@@ -2323,20 +2331,20 @@
         <v>2</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="12">
         <v>4</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I14" s="45">
         <v>0</v>
@@ -2357,7 +2365,7 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
@@ -2372,20 +2380,20 @@
         <v>3</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="11">
         <v>1</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="G15" s="11">
-        <v>1</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>90</v>
       </c>
       <c r="I15" s="35">
         <v>0</v>
@@ -2405,10 +2413,10 @@
       <c r="P15" s="50"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
@@ -2423,20 +2431,20 @@
         <v>4</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="11">
         <v>0</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G16" s="54">
         <v>5</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16" s="35">
         <v>1</v>
@@ -2457,7 +2465,7 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T16" s="11"/>
       <c r="U16" s="56"/>
@@ -2472,20 +2480,20 @@
         <v>5</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="11">
         <v>0</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" s="11">
         <v>2</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I17" s="35">
         <v>0</v>
@@ -2506,7 +2514,7 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T17" s="11"/>
       <c r="U17" s="56"/>
@@ -2521,20 +2529,20 @@
         <v>6</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" s="11">
         <v>1</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" s="12">
         <v>1</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I18" s="35">
         <v>0</v>
@@ -2554,10 +2562,10 @@
       <c r="P18" s="50"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
@@ -2571,19 +2579,19 @@
         <v>7</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="11">
         <v>2</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G19" s="12">
         <v>2</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I19" s="35">
         <v>1</v>
@@ -2598,10 +2606,10 @@
         <v>4</v>
       </c>
       <c r="R19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
@@ -2609,28 +2617,28 @@
         <v>8</v>
       </c>
       <c r="C20" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="11">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>109</v>
-      </c>
       <c r="F20" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G20">
         <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I20" s="35">
         <v>0</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K20" s="11">
         <v>1</v>
@@ -2639,7 +2647,7 @@
         <v>4</v>
       </c>
       <c r="S20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
@@ -2647,28 +2655,28 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="11">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
         <v>114</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>115</v>
-      </c>
       <c r="I21" s="35">
         <v>0</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K21" s="11">
         <v>1</v>
@@ -2677,7 +2685,7 @@
         <v>3</v>
       </c>
       <c r="S21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
@@ -2685,25 +2693,25 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="54" t="s">
         <v>116</v>
-      </c>
-      <c r="D22" s="11">
-        <v>0</v>
-      </c>
-      <c r="F22" s="54" t="s">
-        <v>117</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I22" s="35">
         <v>1</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K22" s="11">
         <v>1</v>
@@ -2712,10 +2720,10 @@
         <v>4</v>
       </c>
       <c r="R22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
@@ -2723,25 +2731,25 @@
         <v>11</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D23" s="11">
         <v>0</v>
       </c>
       <c r="F23" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I23" s="35">
         <v>0</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K23" s="11">
         <v>1</v>
@@ -2750,10 +2758,10 @@
         <v>5</v>
       </c>
       <c r="R23" t="s">
+        <v>121</v>
+      </c>
+      <c r="S23" t="s">
         <v>122</v>
-      </c>
-      <c r="S23" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
@@ -2761,34 +2769,34 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="54" t="s">
         <v>125</v>
-      </c>
-      <c r="D24" s="11">
-        <v>0</v>
-      </c>
-      <c r="F24" s="54" t="s">
-        <v>126</v>
       </c>
       <c r="G24">
         <v>5</v>
       </c>
       <c r="H24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" s="35">
+        <v>1</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="11">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
         <v>127</v>
-      </c>
-      <c r="I24" s="35">
-        <v>1</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K24" s="11">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="S24" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
@@ -2796,25 +2804,25 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" s="11">
         <v>0</v>
       </c>
       <c r="F25" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G25">
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I25" s="35">
         <v>0</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K25" s="11">
         <v>1</v>
@@ -2823,7 +2831,7 @@
         <v>5</v>
       </c>
       <c r="S25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
@@ -2831,25 +2839,25 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D26" s="11">
         <v>0</v>
       </c>
       <c r="F26" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G26">
         <v>4</v>
       </c>
       <c r="H26" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" s="35">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11" t="s">
         <v>132</v>
-      </c>
-      <c r="I26" s="35">
-        <v>0</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>133</v>
       </c>
       <c r="K26" s="11">
         <v>1</v>
@@ -2864,25 +2872,25 @@
         <v>15</v>
       </c>
       <c r="C27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="F27" s="54" t="s">
         <v>134</v>
-      </c>
-      <c r="D27" s="11">
-        <v>0</v>
-      </c>
-      <c r="F27" s="54" t="s">
-        <v>135</v>
       </c>
       <c r="G27">
         <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I27" s="35">
         <v>0</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K27" s="11">
         <v>1</v>
@@ -2891,10 +2899,10 @@
         <v>2</v>
       </c>
       <c r="S27" t="s">
+        <v>136</v>
+      </c>
+      <c r="T27" t="s">
         <v>137</v>
-      </c>
-      <c r="T27" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
@@ -2902,25 +2910,25 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D28" s="11">
         <v>0</v>
       </c>
       <c r="F28" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I28" s="35">
         <v>-1</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K28" s="11">
         <v>-1</v>
@@ -2929,7 +2937,7 @@
         <v>4</v>
       </c>
       <c r="S28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
@@ -2937,37 +2945,37 @@
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" s="11">
         <v>0</v>
       </c>
       <c r="F29" s="54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G29">
         <v>5</v>
       </c>
       <c r="H29" t="s">
+        <v>142</v>
+      </c>
+      <c r="I29" s="35">
+        <v>1</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="11">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
         <v>143</v>
       </c>
-      <c r="I29" s="35">
-        <v>1</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K29" s="11">
-        <v>1</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="S29" t="s">
         <v>144</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="S29" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
@@ -2975,37 +2983,37 @@
         <v>18</v>
       </c>
       <c r="C30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0</v>
+      </c>
+      <c r="F30" s="54" t="s">
         <v>146</v>
-      </c>
-      <c r="D30" s="11">
-        <v>0</v>
-      </c>
-      <c r="F30" s="54" t="s">
-        <v>147</v>
       </c>
       <c r="G30">
         <v>3</v>
       </c>
       <c r="H30" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="I30" s="35">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" s="11">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
         <v>148</v>
       </c>
-      <c r="I30" s="35">
-        <v>0</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K30" s="11">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="S30" t="s">
         <v>149</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="S30" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
@@ -3013,25 +3021,25 @@
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D31" s="11">
         <v>0</v>
       </c>
       <c r="F31" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G31">
         <v>4</v>
       </c>
       <c r="H31" s="61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I31" s="35">
         <v>0</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K31" s="11">
         <v>1</v>
@@ -3040,7 +3048,7 @@
         <v>5</v>
       </c>
       <c r="S31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
@@ -3048,34 +3056,34 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="54" t="s">
         <v>153</v>
-      </c>
-      <c r="D32" s="11">
-        <v>0</v>
-      </c>
-      <c r="F32" s="54" t="s">
-        <v>154</v>
       </c>
       <c r="G32">
         <v>3</v>
       </c>
       <c r="H32" t="s">
+        <v>154</v>
+      </c>
+      <c r="I32" s="35">
+        <v>1</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="S32" t="s">
         <v>155</v>
-      </c>
-      <c r="I32" s="35">
-        <v>1</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K32" s="11">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="S32" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="33" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
@@ -3083,37 +3091,37 @@
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D33" s="11">
         <v>0</v>
       </c>
       <c r="F33" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I33" s="35">
         <v>-1</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K33" s="11">
         <v>-1</v>
       </c>
       <c r="N33" t="s">
+        <v>159</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="S33" t="s">
         <v>160</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="S33" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="34" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
@@ -3121,25 +3129,25 @@
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D34" s="11">
         <v>0</v>
       </c>
       <c r="F34" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I34" s="35">
         <v>-1</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K34" s="11">
         <v>-1</v>
@@ -3148,7 +3156,7 @@
         <v>3</v>
       </c>
       <c r="S34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
@@ -3156,37 +3164,37 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D35" s="11">
         <v>0</v>
       </c>
       <c r="F35" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G35">
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I35" s="35">
         <v>-1</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K35" s="11">
         <v>-1</v>
       </c>
       <c r="N35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
@@ -3194,25 +3202,25 @@
         <v>24</v>
       </c>
       <c r="C36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
         <v>168</v>
       </c>
-      <c r="D36" s="11">
-        <v>0</v>
-      </c>
-      <c r="F36" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>169</v>
-      </c>
       <c r="I36" s="35">
         <v>1</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K36" s="11">
         <v>1</v>
@@ -3221,7 +3229,7 @@
         <v>5</v>
       </c>
       <c r="S36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
@@ -3229,28 +3237,28 @@
         <v>25</v>
       </c>
       <c r="C37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
         <v>179</v>
       </c>
-      <c r="D37" s="11">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>180</v>
-      </c>
       <c r="F37" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I37" s="35">
         <v>1</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K37" s="11">
         <v>1</v>
@@ -3259,7 +3267,7 @@
         <v>5</v>
       </c>
       <c r="S37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
@@ -3267,25 +3275,25 @@
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D38" s="11">
         <v>0</v>
       </c>
       <c r="F38" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I38" s="35">
         <v>1</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K38" s="11">
         <v>1</v>
@@ -3294,7 +3302,7 @@
         <v>4</v>
       </c>
       <c r="S38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
@@ -3302,25 +3310,25 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D39" s="11">
         <v>0</v>
       </c>
       <c r="F39" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G39">
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I39" s="35">
         <v>-1</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K39" s="11">
         <v>-1</v>
@@ -3329,10 +3337,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
@@ -3340,34 +3348,34 @@
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D40" s="11">
         <v>0</v>
       </c>
       <c r="F40" s="54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G40">
         <v>5</v>
       </c>
       <c r="H40" t="s">
+        <v>181</v>
+      </c>
+      <c r="I40" s="35">
+        <v>1</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K40" s="11">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="S40" t="s">
         <v>182</v>
-      </c>
-      <c r="I40" s="35">
-        <v>1</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K40" s="11">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="S40" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="41" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
@@ -3375,25 +3383,25 @@
         <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D41" s="11">
         <v>0</v>
       </c>
       <c r="F41" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I41" s="35">
         <v>-1</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K41" s="11">
         <v>-1</v>
@@ -3402,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U41" s="62"/>
     </row>
@@ -3411,25 +3419,25 @@
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D42" s="11">
         <v>0</v>
       </c>
       <c r="F42" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I42" s="35">
         <v>-1</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K42" s="11">
         <v>-1</v>
@@ -3438,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
@@ -3446,25 +3454,25 @@
         <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D43" s="11">
         <v>0</v>
       </c>
       <c r="F43" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I43" s="35">
         <v>1</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K43" s="11">
         <v>1</v>
@@ -3473,7 +3481,7 @@
         <v>4</v>
       </c>
       <c r="S43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
@@ -3481,37 +3489,37 @@
         <v>32</v>
       </c>
       <c r="C44" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" s="11">
+        <v>0</v>
+      </c>
+      <c r="F44" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
         <v>190</v>
       </c>
-      <c r="D44" s="11">
-        <v>0</v>
-      </c>
-      <c r="F44" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="I44" s="35">
+        <v>1</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K44" s="11">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="R44" t="s">
+        <v>192</v>
+      </c>
+      <c r="S44" t="s">
         <v>191</v>
-      </c>
-      <c r="I44" s="35">
-        <v>1</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K44" s="11">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="R44" t="s">
-        <v>193</v>
-      </c>
-      <c r="S44" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="45" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
@@ -3519,25 +3527,25 @@
         <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D45" s="11">
         <v>0</v>
       </c>
       <c r="F45" s="54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I45" s="35">
         <v>1</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K45" s="11">
         <v>0</v>
@@ -3546,7 +3554,7 @@
         <v>-1</v>
       </c>
       <c r="S45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U45" s="55"/>
     </row>
@@ -3555,25 +3563,25 @@
         <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D46" s="11">
         <v>0</v>
       </c>
       <c r="F46" s="54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
       <c r="H46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I46" s="35">
         <v>1</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K46" s="11">
         <v>1</v>
@@ -3582,7 +3590,7 @@
         <v>5</v>
       </c>
       <c r="S46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
@@ -3590,22 +3598,22 @@
         <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D47" s="11">
         <v>2</v>
       </c>
       <c r="F47" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="I47" s="35">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11" t="s">
         <v>204</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="I47" s="35">
-        <v>0</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>205</v>
       </c>
       <c r="K47" s="11">
         <v>1</v>
@@ -3614,10 +3622,10 @@
         <v>5</v>
       </c>
       <c r="S47" t="s">
-        <v>206</v>
-      </c>
-      <c r="U47" s="63">
-        <v>44513</v>
+        <v>205</v>
+      </c>
+      <c r="U47" s="78" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
@@ -3625,28 +3633,28 @@
         <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D48" s="11">
         <v>2</v>
       </c>
       <c r="F48" s="54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G48">
         <v>2</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O48">
         <v>5</v>
       </c>
       <c r="S48" t="s">
+        <v>209</v>
+      </c>
+      <c r="U48" s="78" t="s">
         <v>210</v>
-      </c>
-      <c r="U48" s="63">
-        <v>44540</v>
       </c>
     </row>
     <row r="49" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
@@ -4199,15 +4207,15 @@
   </sheetData>
   <autoFilter ref="A12:T112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="P10:P11"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pages/猫咪档案.xlsx
+++ b/pages/猫咪档案.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8A8A95-0DF6-4F3D-BF77-58563C6F7BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E30B80E-A81E-4AA9-B323-F3EBDD284AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="268">
   <si>
     <t>建立档案：2019-03-30</t>
   </si>
@@ -1054,6 +1054,34 @@
   </si>
   <si>
     <t>白云-咪咪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海珠-主公</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯白，长毛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车场附近</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在住院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年03月01号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A型血，鸭鸭说：故事啊，那就要说到我用3根猫条换了它两个蛋了，即使割了蛋，也没对送它去的人有敌意，还贴贴。个子不大力气挺大，要不是我练过，抓它绝育就让它跑了。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1543,6 +1571,36 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1557,36 +1615,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1890,10 +1918,10 @@
   <dimension ref="A1:AC594"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="12" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="12" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="S66" sqref="S66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1949,21 +1977,21 @@
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="59"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="2"/>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="61"/>
+      <c r="K3" s="56"/>
       <c r="L3" s="4"/>
       <c r="M3" s="13" t="s">
         <v>7</v>
@@ -1986,7 +2014,7 @@
       <c r="T3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="53" t="s">
+      <c r="U3" s="63" t="s">
         <v>13</v>
       </c>
       <c r="V3" s="7" t="s">
@@ -2026,7 +2054,7 @@
       <c r="T4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="54"/>
+      <c r="U4" s="64"/>
       <c r="X4" s="23" t="s">
         <v>17</v>
       </c>
@@ -2035,18 +2063,18 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
-      <c r="H5" s="58" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="H5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="59"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="25" t="s">
@@ -2061,7 +2089,7 @@
       <c r="T5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="54"/>
+      <c r="U5" s="64"/>
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -2075,7 +2103,7 @@
       <c r="T6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="54" t="s">
+      <c r="U6" s="64" t="s">
         <v>28</v>
       </c>
       <c r="V6" s="7" t="s">
@@ -2122,7 +2150,7 @@
       <c r="T7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="U7" s="54"/>
+      <c r="U7" s="64"/>
       <c r="X7" s="21">
         <v>2</v>
       </c>
@@ -2151,7 +2179,7 @@
       <c r="T8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="U8" s="54" t="s">
+      <c r="U8" s="64" t="s">
         <v>41</v>
       </c>
       <c r="X8" s="21">
@@ -2182,7 +2210,7 @@
       <c r="T9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="U9" s="54"/>
+      <c r="U9" s="64"/>
       <c r="X9" s="21">
         <v>4</v>
       </c>
@@ -2202,7 +2230,7 @@
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="P10" s="66" t="s">
+      <c r="P10" s="61" t="s">
         <v>48</v>
       </c>
       <c r="Q10" s="3" t="s">
@@ -2236,7 +2264,7 @@
         <v>53</v>
       </c>
       <c r="M11" s="4"/>
-      <c r="P11" s="67"/>
+      <c r="P11" s="62"/>
       <c r="Q11" s="4"/>
       <c r="U11" s="30" t="s">
         <v>54</v>
@@ -4242,22 +4270,62 @@
         <v>207</v>
       </c>
     </row>
-    <row r="65" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="71" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="72" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="73" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="79" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="80" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>53</v>
+      </c>
+      <c r="C65" t="s">
+        <v>261</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>263</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="H65" t="s">
+        <v>264</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>265</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
+        <v>266</v>
+      </c>
+      <c r="N65" t="s">
+        <v>262</v>
+      </c>
+      <c r="O65">
+        <v>4</v>
+      </c>
+      <c r="S65" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="81" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="82" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="83" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
@@ -4775,7 +4843,6 @@
   </sheetData>
   <autoFilter ref="A12:T111" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
-    <mergeCell ref="P10:P11"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="U8:U9"/>
@@ -4784,6 +4851,7 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
+    <mergeCell ref="P10:P11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pages/猫咪档案.xlsx
+++ b/pages/猫咪档案.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E30B80E-A81E-4AA9-B323-F3EBDD284AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E28D694-91D3-4A6F-A3B3-82DFA110131F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1427,7 +1427,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1571,6 +1571,27 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1595,26 +1616,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1918,10 +1921,10 @@
   <dimension ref="A1:AC594"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="12" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="12" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S66" sqref="S66"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1977,21 +1980,21 @@
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="2"/>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="56"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="4"/>
       <c r="M3" s="13" t="s">
         <v>7</v>
@@ -2014,7 +2017,7 @@
       <c r="T3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="63" t="s">
+      <c r="U3" s="55" t="s">
         <v>13</v>
       </c>
       <c r="V3" s="7" t="s">
@@ -2054,7 +2057,7 @@
       <c r="T4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="64"/>
+      <c r="U4" s="56"/>
       <c r="X4" s="23" t="s">
         <v>17</v>
       </c>
@@ -2063,18 +2066,18 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="H5" s="53" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="H5" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="54"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="61"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="25" t="s">
@@ -2089,7 +2092,7 @@
       <c r="T5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="64"/>
+      <c r="U5" s="56"/>
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -2103,7 +2106,7 @@
       <c r="T6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="56" t="s">
         <v>28</v>
       </c>
       <c r="V6" s="7" t="s">
@@ -2150,7 +2153,7 @@
       <c r="T7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="U7" s="64"/>
+      <c r="U7" s="56"/>
       <c r="X7" s="21">
         <v>2</v>
       </c>
@@ -2179,7 +2182,7 @@
       <c r="T8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="U8" s="64" t="s">
+      <c r="U8" s="56" t="s">
         <v>41</v>
       </c>
       <c r="X8" s="21">
@@ -2210,7 +2213,7 @@
       <c r="T9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="U9" s="64"/>
+      <c r="U9" s="56"/>
       <c r="X9" s="21">
         <v>4</v>
       </c>
@@ -2230,7 +2233,7 @@
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="P10" s="61" t="s">
+      <c r="P10" s="53" t="s">
         <v>48</v>
       </c>
       <c r="Q10" s="3" t="s">
@@ -2264,7 +2267,7 @@
         <v>53</v>
       </c>
       <c r="M11" s="4"/>
-      <c r="P11" s="62"/>
+      <c r="P11" s="54"/>
       <c r="Q11" s="4"/>
       <c r="U11" s="30" t="s">
         <v>54</v>
@@ -2801,7 +2804,7 @@
         <v>220</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24" s="40" t="s">
         <v>88</v>
@@ -3686,67 +3689,67 @@
       </c>
     </row>
     <row r="49" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B49">
+      <c r="B49" s="68">
         <v>37</v>
       </c>
       <c r="C49" t="s">
+        <v>261</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>263</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49" t="s">
+        <v>264</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>265</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>266</v>
+      </c>
+      <c r="N49" t="s">
+        <v>262</v>
+      </c>
+      <c r="O49">
+        <v>4</v>
+      </c>
+      <c r="S49" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B50" s="68">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
         <v>245</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
         <v>166</v>
-      </c>
-      <c r="G49">
-        <v>4</v>
-      </c>
-      <c r="H49" t="s">
-        <v>167</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49" t="s">
-        <v>168</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="N49" t="s">
-        <v>169</v>
-      </c>
-      <c r="O49">
-        <v>3</v>
-      </c>
-      <c r="S49" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>38</v>
-      </c>
-      <c r="C50" t="s">
-        <v>246</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>170</v>
-      </c>
-      <c r="F50" t="s">
-        <v>171</v>
       </c>
       <c r="G50">
         <v>4</v>
       </c>
       <c r="H50" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>168</v>
@@ -3755,56 +3758,62 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S50" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B51">
+      <c r="B51" s="68">
         <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
+      <c r="E51" t="s">
+        <v>170</v>
+      </c>
       <c r="F51" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H51" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>168</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>173</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S51" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B52">
+      <c r="B52" s="68">
         <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3816,10 +3825,10 @@
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>168</v>
@@ -3827,25 +3836,19 @@
       <c r="K52">
         <v>0</v>
       </c>
-      <c r="N52" t="s">
-        <v>179</v>
-      </c>
       <c r="O52">
-        <v>1</v>
-      </c>
-      <c r="R52" s="51" t="s">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="S52" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B53">
+      <c r="B53" s="68">
         <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -3869,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -3878,27 +3881,27 @@
         <v>180</v>
       </c>
       <c r="S53" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B54">
+      <c r="B54" s="68">
         <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -3907,71 +3910,77 @@
         <v>168</v>
       </c>
       <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54" t="s">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="R54" s="51" t="s">
+        <v>180</v>
       </c>
       <c r="S54" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B55">
+      <c r="B55" s="68">
         <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H55" t="s">
         <v>185</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
         <v>168</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>186</v>
+      </c>
+      <c r="N55" t="s">
+        <v>187</v>
       </c>
       <c r="O55">
         <v>4</v>
       </c>
       <c r="S55" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B56">
+      <c r="B56" s="68">
         <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H56" t="s">
         <v>185</v>
@@ -3986,171 +3995,171 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S56" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B57">
+      <c r="B57" s="68">
         <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H57" t="s">
         <v>185</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
+        <v>168</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>5</v>
+      </c>
+      <c r="S57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B58" s="68">
+        <v>46</v>
+      </c>
+      <c r="C58" t="s">
+        <v>253</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>166</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58" t="s">
+        <v>185</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
         <v>193</v>
       </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="O57">
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="O58">
         <v>-1</v>
       </c>
-      <c r="S57" t="s">
+      <c r="S58" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>46</v>
-      </c>
-      <c r="C58" t="s">
+    <row r="59" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B59" s="68">
+        <v>47</v>
+      </c>
+      <c r="C59" t="s">
         <v>254</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
         <v>191</v>
       </c>
-      <c r="G58">
+      <c r="G59">
         <v>4</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H59" t="s">
         <v>195</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58" t="s">
-        <v>168</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58" t="s">
-        <v>186</v>
-      </c>
-      <c r="O58">
-        <v>3</v>
-      </c>
-      <c r="S58" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="59" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>47</v>
-      </c>
-      <c r="C59" t="s">
-        <v>255</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="F59" t="s">
-        <v>189</v>
-      </c>
-      <c r="G59">
-        <v>5</v>
-      </c>
-      <c r="H59" t="s">
-        <v>185</v>
-      </c>
-      <c r="I59" s="48"/>
+      <c r="I59">
+        <v>0</v>
+      </c>
       <c r="J59" t="s">
         <v>168</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
+        <v>186</v>
+      </c>
+      <c r="O59">
+        <v>3</v>
       </c>
       <c r="S59" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="60" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B60">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="68">
         <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>198</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="I60" s="48"/>
       <c r="J60" t="s">
         <v>168</v>
       </c>
       <c r="K60">
-        <v>-1</v>
-      </c>
-      <c r="O60">
         <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B61">
+      <c r="B61" s="68">
         <v>49</v>
       </c>
       <c r="C61" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H61" t="s">
         <v>198</v>
       </c>
-      <c r="I61" s="52">
-        <v>-1</v>
+      <c r="I61">
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>168</v>
@@ -4166,149 +4175,143 @@
       </c>
     </row>
     <row r="62" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B62">
+      <c r="B62" s="68">
         <v>50</v>
       </c>
       <c r="C62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H62" t="s">
-        <v>202</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
+        <v>198</v>
+      </c>
+      <c r="I62" s="52">
+        <v>-1</v>
       </c>
       <c r="J62" t="s">
         <v>168</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O62">
         <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B63">
+      <c r="B63" s="68">
         <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>168</v>
       </c>
       <c r="K63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O63">
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B64">
+      <c r="B64" s="68">
         <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="G64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H64" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I64">
         <v>-1</v>
       </c>
       <c r="J64" t="s">
+        <v>168</v>
+      </c>
+      <c r="K64">
+        <v>-1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="S64" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B65" s="68">
+        <v>53</v>
+      </c>
+      <c r="C65" t="s">
+        <v>260</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>191</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65" t="s">
+        <v>206</v>
+      </c>
+      <c r="I65">
+        <v>-1</v>
+      </c>
+      <c r="J65" t="s">
         <v>193</v>
       </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="S64" t="s">
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="S65" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="65" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>53</v>
-      </c>
-      <c r="C65" t="s">
-        <v>261</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="F65" t="s">
-        <v>263</v>
-      </c>
-      <c r="G65">
-        <v>5</v>
-      </c>
-      <c r="H65" t="s">
-        <v>264</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65" t="s">
-        <v>265</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65" t="s">
-        <v>266</v>
-      </c>
-      <c r="N65" t="s">
-        <v>262</v>
-      </c>
-      <c r="O65">
-        <v>4</v>
-      </c>
-      <c r="S65" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="66" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
@@ -4843,15 +4846,15 @@
   </sheetData>
   <autoFilter ref="A12:T111" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="P10:P11"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pages/猫咪档案.xlsx
+++ b/pages/猫咪档案.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E28D694-91D3-4A6F-A3B3-82DFA110131F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665B200D-000C-46AB-8A9C-068F6FA2C149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="校内喵" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">校内喵!$A$12:$T$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">校内喵!$A$12:$T$109</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -24,8 +24,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="272">
   <si>
     <t>建立档案：2019-03-30</t>
   </si>
@@ -732,6 +735,9 @@
     <t>白手套+白围脖</t>
   </si>
   <si>
+    <t>女明星，吃东西的时候任人摸，没东西吃可能不理人，窝在二栋对面的草丛里，有时可能住1栋对面的平台，之前被绽放美食的恶霸欺负，目前定居2栋对面</t>
+  </si>
+  <si>
     <t>何A楼长</t>
   </si>
   <si>
@@ -753,10 +759,7 @@
     <t>实验田一带</t>
   </si>
   <si>
-    <t>任人摸，会蹭人，怀孕当中(估计即将生娃），最近老到处跑，偶尔找不到猫影，它的窝在实验田大石头对面的保安亭</t>
-  </si>
-  <si>
-    <t>6栋附近</t>
+    <t>任人摸，会蹭人，怀孕期间因为担心她，一位小姐姐和其男朋友帮忙带去医院，后来找到了领养，猫宝宝2022年4月30日出生，目前宝宝们待领养中</t>
   </si>
   <si>
     <t>脸看着有点脏</t>
@@ -786,67 +789,97 @@
     <t>头上有三点，有两点偏小</t>
   </si>
   <si>
-    <t>刚绝育不久有点情绪，能不能摸到要看人，可能会咬人，有同学被咬过但都没出血</t>
-  </si>
-  <si>
     <t>白</t>
   </si>
   <si>
-    <t>生完宝宝一个多月，宝宝大部分被带走了，</t>
+    <t>是个宝妈，宝宝大部分被带走了，奶球是她的孩子</t>
   </si>
   <si>
     <t>黑白橘</t>
   </si>
   <si>
-    <t>接零点后俩星期左右生宝宝，挺亲人的</t>
+    <t>接零点后俩星期左右生宝宝，挺亲人的，五个宝宝只剩下两只了</t>
+  </si>
+  <si>
+    <t>失踪</t>
+  </si>
+  <si>
+    <t>是2021年十一月份被夹到的那只猫猫，这学期开始见到过，失踪好久</t>
+  </si>
+  <si>
+    <t>有意转让给其他同学，偶尔会跑出宿舍外面玩</t>
+  </si>
+  <si>
+    <t>零点的娃娃，很活泼，喜欢跑别人鞋上</t>
+  </si>
+  <si>
+    <t>吃旧饭的垃圾为生，有时候会去吃大兔小兔的粮，目前直接用手喂不会吃</t>
+  </si>
+  <si>
+    <t>橘白</t>
+  </si>
+  <si>
+    <t>黑</t>
   </si>
   <si>
     <t>许久未见</t>
   </si>
   <si>
-    <t>是2021年十一月份被夹到的那只猫猫，这学期开始见到过，最近失踪</t>
-  </si>
-  <si>
-    <t>7栋（因年龄小由两名同学领养）</t>
-  </si>
-  <si>
-    <t>偶尔会跑出宿舍外面玩</t>
-  </si>
-  <si>
-    <t>零点的娃娃，很活泼，喜欢跑别人鞋上</t>
-  </si>
-  <si>
-    <t>旧饭车棚</t>
-  </si>
-  <si>
-    <t>吃旧饭的垃圾为生，有时候会去吃大兔小兔的粮，目前直接用手喂不会吃</t>
-  </si>
-  <si>
-    <t>橘白</t>
-  </si>
-  <si>
-    <t>黑</t>
-  </si>
-  <si>
-    <t>在教职工宿舍那边见过几次</t>
-  </si>
-  <si>
     <t>发情ing，被同学看见过，想抓去绝育的时候就没见着了，靠近不了</t>
   </si>
   <si>
-    <t>有时候会出现在小黑的所在地</t>
-  </si>
-  <si>
-    <t>欺负小黑的就是它，但怂人，靠近不了，有吃的也不行</t>
+    <t>欺负小黑的就是它，但怂人，现在经常跑到狗蛋那里“偷”粮，相对之前没那么怕人了，给粮会吃了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>基本上在何A  6楼</t>
   </si>
   <si>
+    <t>不明</t>
+  </si>
+  <si>
     <t>胆小，狗蛋的伙伴，不会到处跑，很难发现它，喜欢吃好吃的</t>
   </si>
   <si>
-    <t>女明星，吃东西的时候任人摸，没东西吃可能不理人，窝在二栋对面的草丛里，有时可能住1栋对面的平台，经常被绽放美食的橘猫欺负，在2栋和1栋之间搬了几次家</t>
+    <t>教职工宿舍</t>
+  </si>
+  <si>
+    <t>头上的点和两点很像，正面看像八字</t>
+  </si>
+  <si>
+    <t>是两点、零点、三点半的妈妈，跟黄黄是兄妹，很少见到</t>
+  </si>
+  <si>
+    <t>离世</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>口炎+细菌感染+猫艾滋。于2022年5月31日16时20分安乐死。手术医院为嘉禾望岗同健宠物医院。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白云旧饭车棚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在白云教职工宿舍那边见过几次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在狗蛋那边共处，有时候去旧饭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7栋（因年龄小由两名同学暂时领养）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白云6栋附近</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D栋小花园旁的教职工宿舍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>海珠-楼长</t>
@@ -997,6 +1030,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>傻猫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>白云-狗蛋</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1013,7 +1050,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>白云-两点半</t>
+    <t>白云-两点</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1025,7 +1062,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>白云-丑猫</t>
+    <t>白云-黄黄</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1049,7 +1086,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>白云-？（大家都叫橘猫）</t>
+    <t>白云-恶霸</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1057,31 +1094,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>海珠-主公</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯白，长毛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>停车场附近</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在住院</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022年03月01号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A型血，鸭鸭说：故事啊，那就要说到我用3根猫条换了它两个蛋了，即使割了蛋，也没对送它去的人有敌意，还贴贴。个子不大力气挺大，要不是我练过，抓它绝育就让它跑了。</t>
+    <t>白云-点点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年05月31日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“两点小朋友，提早和你说一句儿童节快乐，回到喵星的你一定要开心，下辈子我们不要再流浪啦”</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1200,7 +1221,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1239,6 +1260,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1427,7 +1454,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1516,9 +1543,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="18" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1570,13 +1594,34 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1592,12 +1637,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1612,34 +1651,28 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="20% - 着色 2" xfId="1" builtinId="34"/>
     <cellStyle name="差" xfId="18" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="适中" xfId="19" builtinId="28"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1918,23 +1951,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC594"/>
+  <dimension ref="A1:AI592"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="12" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="12" topLeftCell="R50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.77734375" style="1"/>
     <col min="2" max="2" width="8.77734375" style="2"/>
-    <col min="3" max="3" width="8.77734375" style="3"/>
+    <col min="3" max="3" width="10.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="3"/>
+    <col min="6" max="6" width="15.44140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>
     <col min="8" max="8" width="21.44140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="8.77734375" style="6"/>
@@ -1950,13 +1983,13 @@
     <col min="19" max="19" width="20.44140625" style="3" customWidth="1"/>
     <col min="20" max="20" width="18.77734375" style="3" customWidth="1"/>
     <col min="21" max="21" width="20.109375" style="3" customWidth="1"/>
-    <col min="22" max="23" width="17.5546875" style="3" customWidth="1"/>
-    <col min="24" max="24" width="15.5546875" style="12" customWidth="1"/>
-    <col min="25" max="25" width="12.5546875" style="3" customWidth="1"/>
+    <col min="22" max="23" width="17.44140625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="15.44140625" style="12" customWidth="1"/>
+    <col min="25" max="25" width="12.44140625" style="3" customWidth="1"/>
     <col min="26" max="26" width="8.77734375" style="3"/>
     <col min="27" max="27" width="13.44140625" style="3" customWidth="1"/>
     <col min="28" max="28" width="8.77734375" style="3"/>
-    <col min="29" max="29" width="10.5546875" style="3" customWidth="1"/>
+    <col min="29" max="29" width="10.44140625" style="3" customWidth="1"/>
     <col min="30" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
@@ -1980,21 +2013,21 @@
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="61"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="2"/>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="63"/>
+      <c r="K3" s="67"/>
       <c r="L3" s="4"/>
       <c r="M3" s="13" t="s">
         <v>7</v>
@@ -2017,7 +2050,7 @@
       <c r="T3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="55" t="s">
+      <c r="U3" s="61" t="s">
         <v>13</v>
       </c>
       <c r="V3" s="7" t="s">
@@ -2057,7 +2090,7 @@
       <c r="T4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="56"/>
+      <c r="U4" s="62"/>
       <c r="X4" s="23" t="s">
         <v>17</v>
       </c>
@@ -2066,18 +2099,18 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
-      <c r="H5" s="60" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
+      <c r="H5" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="61"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="25" t="s">
@@ -2092,7 +2125,7 @@
       <c r="T5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="56"/>
+      <c r="U5" s="62"/>
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -2106,7 +2139,7 @@
       <c r="T6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="56" t="s">
+      <c r="U6" s="62" t="s">
         <v>28</v>
       </c>
       <c r="V6" s="7" t="s">
@@ -2141,7 +2174,7 @@
       <c r="O7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="49" t="s">
+      <c r="P7" s="48" t="s">
         <v>34</v>
       </c>
       <c r="Q7" s="18" t="s">
@@ -2153,7 +2186,7 @@
       <c r="T7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="U7" s="56"/>
+      <c r="U7" s="62"/>
       <c r="X7" s="21">
         <v>2</v>
       </c>
@@ -2170,10 +2203,10 @@
       <c r="I8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="P8" s="50" t="s">
+      <c r="P8" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="42" t="s">
+      <c r="Q8" s="41" t="s">
         <v>39</v>
       </c>
       <c r="S8" s="21">
@@ -2182,7 +2215,7 @@
       <c r="T8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="U8" s="56" t="s">
+      <c r="U8" s="62" t="s">
         <v>41</v>
       </c>
       <c r="X8" s="21">
@@ -2201,7 +2234,7 @@
       <c r="I9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="P9" s="50" t="s">
+      <c r="P9" s="49" t="s">
         <v>43</v>
       </c>
       <c r="Q9" s="24" t="s">
@@ -2213,7 +2246,7 @@
       <c r="T9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="U9" s="56"/>
+      <c r="U9" s="62"/>
       <c r="X9" s="21">
         <v>4</v>
       </c>
@@ -2233,7 +2266,7 @@
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="P10" s="53" t="s">
+      <c r="P10" s="56" t="s">
         <v>48</v>
       </c>
       <c r="Q10" s="3" t="s">
@@ -2263,11 +2296,11 @@
       <c r="J11" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="43" t="s">
+      <c r="L11" s="42" t="s">
         <v>53</v>
       </c>
       <c r="M11" s="4"/>
-      <c r="P11" s="54"/>
+      <c r="P11" s="57"/>
       <c r="Q11" s="4"/>
       <c r="U11" s="30" t="s">
         <v>54</v>
@@ -2356,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -2364,7 +2397,7 @@
       <c r="E13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="43" t="s">
         <v>78</v>
       </c>
       <c r="G13" s="3">
@@ -2373,22 +2406,22 @@
       <c r="H13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="31">
-        <v>0</v>
-      </c>
-      <c r="J13" s="32" t="s">
+      <c r="I13" s="55">
+        <v>0</v>
+      </c>
+      <c r="J13" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K13" s="3">
         <v>1</v>
       </c>
-      <c r="L13" s="33"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="35">
+      <c r="N13" s="33"/>
+      <c r="O13" s="34">
         <v>2</v>
       </c>
-      <c r="P13" s="36"/>
+      <c r="P13" s="35"/>
       <c r="Q13" s="11"/>
       <c r="S13" s="3" t="s">
         <v>81</v>
@@ -2400,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -2414,7 +2447,7 @@
       <c r="H14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="55">
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -2425,11 +2458,11 @@
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="34"/>
+      <c r="N14" s="33"/>
       <c r="O14" s="11">
         <v>6</v>
       </c>
-      <c r="P14" s="37"/>
+      <c r="P14" s="36"/>
       <c r="Q14" s="11"/>
       <c r="S14" s="3" t="s">
         <v>83</v>
@@ -2441,7 +2474,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -2461,15 +2494,15 @@
       <c r="J15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="38">
-        <v>1</v>
-      </c>
-      <c r="L15" s="39"/>
+      <c r="K15" s="37">
+        <v>1</v>
+      </c>
+      <c r="L15" s="38"/>
       <c r="M15" s="4"/>
       <c r="O15" s="3">
         <v>1</v>
       </c>
-      <c r="P15" s="36"/>
+      <c r="P15" s="35"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="3" t="s">
         <v>86</v>
@@ -2484,15 +2517,15 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="39">
         <v>5</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -2509,16 +2542,16 @@
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="34"/>
+      <c r="N16" s="33"/>
       <c r="O16" s="3">
         <v>2</v>
       </c>
-      <c r="P16" s="37"/>
+      <c r="P16" s="36"/>
       <c r="Q16" s="11"/>
       <c r="S16" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="U16" s="41"/>
+      <c r="U16" s="40"/>
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
@@ -2526,12 +2559,12 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="39" t="s">
         <v>91</v>
       </c>
       <c r="G17" s="3">
@@ -2551,15 +2584,15 @@
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="O17" s="38">
+      <c r="O17" s="37">
         <v>3</v>
       </c>
-      <c r="P17" s="36"/>
+      <c r="P17" s="35"/>
       <c r="Q17" s="11"/>
       <c r="S17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="U17" s="41"/>
+      <c r="U17" s="40"/>
       <c r="X17" s="3"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
@@ -2567,12 +2600,12 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="39" t="s">
         <v>84</v>
       </c>
       <c r="G18" s="11">
@@ -2592,13 +2625,13 @@
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="38">
+      <c r="N18" s="33"/>
+      <c r="O18" s="37">
         <v>5</v>
       </c>
-      <c r="P18" s="36"/>
+      <c r="P18" s="35"/>
       <c r="Q18" s="11"/>
-      <c r="R18" s="34" t="s">
+      <c r="R18" s="33" t="s">
         <v>94</v>
       </c>
       <c r="S18" s="3" t="s">
@@ -2611,12 +2644,12 @@
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="39" t="s">
         <v>91</v>
       </c>
       <c r="G19" s="11">
@@ -2649,7 +2682,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -2657,7 +2690,7 @@
       <c r="E20" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="39" t="s">
         <v>78</v>
       </c>
       <c r="G20">
@@ -2687,7 +2720,7 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2695,7 +2728,7 @@
       <c r="E21" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="39" t="s">
         <v>84</v>
       </c>
       <c r="G21">
@@ -2725,12 +2758,12 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="39" t="s">
         <v>104</v>
       </c>
       <c r="G22">
@@ -2763,12 +2796,12 @@
         <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="39" t="s">
         <v>104</v>
       </c>
       <c r="G23">
@@ -2801,12 +2834,12 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D24" s="3">
-        <v>3</v>
-      </c>
-      <c r="F24" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="39" t="s">
         <v>88</v>
       </c>
       <c r="G24">
@@ -2819,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
@@ -2836,12 +2869,12 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="39" t="s">
         <v>78</v>
       </c>
       <c r="G25">
@@ -2871,12 +2904,12 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="39" t="s">
         <v>78</v>
       </c>
       <c r="G26">
@@ -2897,19 +2930,19 @@
       <c r="O26">
         <v>5</v>
       </c>
-      <c r="S26" s="45"/>
+      <c r="S26" s="44"/>
     </row>
     <row r="27" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="39" t="s">
         <v>117</v>
       </c>
       <c r="G27">
@@ -2942,12 +2975,12 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="39" t="s">
         <v>104</v>
       </c>
       <c r="G28">
@@ -2977,12 +3010,12 @@
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="F29" s="39" t="s">
         <v>88</v>
       </c>
       <c r="G29">
@@ -3015,18 +3048,18 @@
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="39" t="s">
         <v>126</v>
       </c>
       <c r="G30">
         <v>3</v>
       </c>
-      <c r="H30" s="45" t="s">
+      <c r="H30" s="44" t="s">
         <v>127</v>
       </c>
       <c r="I30" s="6">
@@ -3053,18 +3086,18 @@
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
       </c>
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="39" t="s">
         <v>78</v>
       </c>
       <c r="G31">
         <v>4</v>
       </c>
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="44" t="s">
         <v>127</v>
       </c>
       <c r="I31" s="6">
@@ -3088,12 +3121,12 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="39" t="s">
         <v>126</v>
       </c>
       <c r="G32">
@@ -3123,12 +3156,12 @@
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="39" t="s">
         <v>84</v>
       </c>
       <c r="G33">
@@ -3161,12 +3194,12 @@
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F34" s="39" t="s">
         <v>84</v>
       </c>
       <c r="G34">
@@ -3196,12 +3229,12 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="39" t="s">
         <v>126</v>
       </c>
       <c r="G35">
@@ -3234,12 +3267,12 @@
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="39" t="s">
         <v>84</v>
       </c>
       <c r="G36">
@@ -3269,7 +3302,7 @@
         <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -3277,7 +3310,7 @@
       <c r="E37" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="40" t="s">
+      <c r="F37" s="39" t="s">
         <v>104</v>
       </c>
       <c r="G37">
@@ -3307,12 +3340,12 @@
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
       </c>
-      <c r="F38" s="40" t="s">
+      <c r="F38" s="39" t="s">
         <v>84</v>
       </c>
       <c r="G38">
@@ -3342,12 +3375,12 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
       </c>
-      <c r="F39" s="40" t="s">
+      <c r="F39" s="39" t="s">
         <v>126</v>
       </c>
       <c r="G39">
@@ -3380,12 +3413,12 @@
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
       </c>
-      <c r="F40" s="40" t="s">
+      <c r="F40" s="39" t="s">
         <v>88</v>
       </c>
       <c r="G40">
@@ -3415,12 +3448,12 @@
         <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="F41" s="40" t="s">
+      <c r="F41" s="39" t="s">
         <v>84</v>
       </c>
       <c r="G41">
@@ -3444,19 +3477,19 @@
       <c r="S41" t="s">
         <v>150</v>
       </c>
-      <c r="U41" s="46"/>
+      <c r="U41" s="45"/>
     </row>
     <row r="42" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F42" s="39" t="s">
         <v>84</v>
       </c>
       <c r="G42">
@@ -3486,12 +3519,12 @@
         <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="40" t="s">
+      <c r="F43" s="39" t="s">
         <v>104</v>
       </c>
       <c r="G43">
@@ -3521,12 +3554,12 @@
         <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="40" t="s">
+      <c r="F44" s="39" t="s">
         <v>84</v>
       </c>
       <c r="G44">
@@ -3559,12 +3592,12 @@
         <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="40" t="s">
+      <c r="F45" s="39" t="s">
         <v>91</v>
       </c>
       <c r="G45">
@@ -3594,12 +3627,12 @@
         <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
       </c>
-      <c r="F46" s="40" t="s">
+      <c r="F46" s="39" t="s">
         <v>91</v>
       </c>
       <c r="G46">
@@ -3629,17 +3662,18 @@
         <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D47" s="3">
         <v>2</v>
       </c>
-      <c r="F47" s="40" t="s">
+      <c r="F47" s="39" t="s">
         <v>84</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
+      <c r="H47" s="3"/>
       <c r="I47" s="6">
         <v>0</v>
       </c>
@@ -3655,7 +3689,7 @@
       <c r="S47" t="s">
         <v>162</v>
       </c>
-      <c r="U47" s="47" t="s">
+      <c r="U47" s="46" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3664,12 +3698,12 @@
         <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D48" s="3">
         <v>2</v>
       </c>
-      <c r="F48" s="40" t="s">
+      <c r="F48" s="39" t="s">
         <v>91</v>
       </c>
       <c r="G48">
@@ -3684,72 +3718,75 @@
       <c r="S48" t="s">
         <v>164</v>
       </c>
-      <c r="U48" s="47" t="s">
+      <c r="U48" s="46" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B49" s="68">
+    <row r="49" spans="2:35" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B49">
         <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
+      <c r="E49" t="s">
+        <v>253</v>
+      </c>
       <c r="F49" t="s">
-        <v>263</v>
+        <v>166</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H49" t="s">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
-      <c r="L49" t="s">
-        <v>266</v>
-      </c>
       <c r="N49" t="s">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="O49">
-        <v>4</v>
-      </c>
-      <c r="S49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="50" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B50" s="68">
+        <v>3</v>
+      </c>
+      <c r="S49" s="51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50">
         <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>245</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
+        <v>254</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>171</v>
       </c>
       <c r="F50" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G50">
         <v>4</v>
       </c>
       <c r="H50" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>168</v>
@@ -3758,77 +3795,71 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="O50">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S50" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="51" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B51" s="68">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51">
         <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>246</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51" t="s">
-        <v>170</v>
+        <v>255</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H51" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>168</v>
+        <v>0</v>
+      </c>
+      <c r="J51" s="51" t="s">
+        <v>39</v>
       </c>
       <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="N51" t="s">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="O51">
-        <v>6</v>
-      </c>
-      <c r="S51" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B52" s="68">
+        <v>5</v>
+      </c>
+      <c r="S51" s="51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52">
         <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>247</v>
-      </c>
-      <c r="D52">
+        <v>256</v>
+      </c>
+      <c r="D52" s="3">
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>168</v>
@@ -3836,31 +3867,37 @@
       <c r="K52">
         <v>0</v>
       </c>
+      <c r="N52" t="s">
+        <v>179</v>
+      </c>
       <c r="O52">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="R52" s="50" t="s">
+        <v>180</v>
       </c>
       <c r="S52" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B53" s="68">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53">
         <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>248</v>
-      </c>
-      <c r="D53">
+        <v>257</v>
+      </c>
+      <c r="D53" s="3">
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G53">
         <v>2</v>
       </c>
       <c r="H53" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -3872,115 +3909,115 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O53">
         <v>1</v>
       </c>
-      <c r="R53" s="51" t="s">
+      <c r="R53" s="50" t="s">
         <v>180</v>
       </c>
       <c r="S53" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B54" s="68">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54">
         <v>42</v>
       </c>
-      <c r="C54" t="s">
-        <v>249</v>
-      </c>
-      <c r="D54">
+      <c r="C54" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="D54" s="3">
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>186</v>
       </c>
       <c r="N54" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="O54">
-        <v>1</v>
-      </c>
-      <c r="R54" s="51" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="S54" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="55" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B55" s="68">
+        <v>271</v>
+      </c>
+      <c r="V54" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="W54" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55">
         <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>250</v>
-      </c>
-      <c r="D55">
+        <v>259</v>
+      </c>
+      <c r="D55" s="3">
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H55" t="s">
         <v>185</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
         <v>168</v>
       </c>
       <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55" t="s">
-        <v>186</v>
-      </c>
-      <c r="N55" t="s">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="O55">
         <v>4</v>
       </c>
       <c r="S55" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="56" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B56" s="68">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56">
         <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>251</v>
-      </c>
-      <c r="D56">
+        <v>260</v>
+      </c>
+      <c r="D56" s="3">
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H56" t="s">
         <v>185</v>
@@ -3995,171 +4032,171 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S56" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="57" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B57" s="68">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57">
         <v>45</v>
       </c>
-      <c r="C57" t="s">
-        <v>252</v>
-      </c>
-      <c r="D57">
+      <c r="C57" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="D57" s="3">
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H57" t="s">
         <v>185</v>
       </c>
       <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>-1</v>
+      </c>
+      <c r="S57" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="58" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>46</v>
+      </c>
+      <c r="C58" t="s">
+        <v>262</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>190</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="H58" t="s">
+        <v>213</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
         <v>168</v>
       </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="O57">
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>186</v>
+      </c>
+      <c r="O58">
+        <v>3</v>
+      </c>
+      <c r="S58" s="51" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>47</v>
+      </c>
+      <c r="C59" t="s">
+        <v>263</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>188</v>
+      </c>
+      <c r="G59">
         <v>5</v>
       </c>
-      <c r="S57" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="58" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B58" s="68">
-        <v>46</v>
-      </c>
-      <c r="C58" t="s">
-        <v>253</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="F58" t="s">
-        <v>166</v>
-      </c>
-      <c r="G58">
-        <v>3</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="H59" t="s">
         <v>185</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>193</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>-1</v>
-      </c>
-      <c r="S58" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="59" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B59" s="68">
-        <v>47</v>
-      </c>
-      <c r="C59" t="s">
-        <v>254</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="F59" t="s">
-        <v>191</v>
-      </c>
-      <c r="G59">
-        <v>4</v>
-      </c>
-      <c r="H59" t="s">
-        <v>195</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
+      <c r="I59" s="47"/>
       <c r="J59" t="s">
         <v>168</v>
       </c>
       <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59" t="s">
-        <v>186</v>
-      </c>
-      <c r="O59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="60" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="68">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60">
         <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>255</v>
-      </c>
-      <c r="D60">
+        <v>264</v>
+      </c>
+      <c r="D60" s="3">
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>185</v>
-      </c>
-      <c r="I60" s="48"/>
+        <v>210</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
       <c r="J60" t="s">
         <v>168</v>
       </c>
       <c r="K60">
+        <v>-1</v>
+      </c>
+      <c r="O60">
         <v>0</v>
       </c>
       <c r="S60" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>49</v>
+      </c>
+      <c r="C61" t="s">
+        <v>265</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="61" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B61" s="68">
-        <v>49</v>
-      </c>
-      <c r="C61" t="s">
-        <v>256</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="F61" t="s">
-        <v>191</v>
-      </c>
       <c r="G61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H61" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J61" t="s">
         <v>168</v>
@@ -4171,141 +4208,160 @@
         <v>0</v>
       </c>
       <c r="S61" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>50</v>
+      </c>
+      <c r="C62" t="s">
+        <v>266</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>198</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+      <c r="H62" t="s">
+        <v>211</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" s="51" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="62" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B62" s="68">
-        <v>50</v>
-      </c>
-      <c r="C62" t="s">
-        <v>257</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="S62" t="s">
         <v>200</v>
       </c>
-      <c r="G62">
+    </row>
+    <row r="63" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>51</v>
+      </c>
+      <c r="C63" t="s">
+        <v>267</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>197</v>
+      </c>
+      <c r="G63">
         <v>2</v>
       </c>
-      <c r="H62" t="s">
-        <v>198</v>
-      </c>
-      <c r="I62" s="52">
+      <c r="H63" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="I63">
         <v>-1</v>
-      </c>
-      <c r="J62" t="s">
-        <v>168</v>
-      </c>
-      <c r="K62">
-        <v>-1</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="S62" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="63" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B63" s="68">
-        <v>51</v>
-      </c>
-      <c r="C63" t="s">
-        <v>258</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="F63" t="s">
-        <v>201</v>
-      </c>
-      <c r="G63">
-        <v>5</v>
-      </c>
-      <c r="H63" t="s">
-        <v>202</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>168</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="51">
         <v>0</v>
       </c>
       <c r="O63">
         <v>0</v>
       </c>
-      <c r="S63" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="64" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B64" s="68">
+      <c r="S63" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="T63" s="53"/>
+      <c r="U63" s="53"/>
+      <c r="V63" s="54"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="58"/>
+      <c r="Z63" s="59"/>
+      <c r="AA63" s="59"/>
+      <c r="AB63" s="60"/>
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="4"/>
+      <c r="AE63" s="25"/>
+      <c r="AF63" s="3"/>
+      <c r="AG63" s="26"/>
+      <c r="AH63" s="3"/>
+      <c r="AI63" s="3"/>
+    </row>
+    <row r="64" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64">
         <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>259</v>
-      </c>
-      <c r="D64">
+        <v>268</v>
+      </c>
+      <c r="D64" s="3">
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H64" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I64">
         <v>-1</v>
       </c>
       <c r="J64" t="s">
+        <v>203</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="S64" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>55</v>
+      </c>
+      <c r="C65" t="s">
+        <v>269</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>166</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65" t="s">
+        <v>205</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
         <v>168</v>
       </c>
-      <c r="K64">
-        <v>-1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="S64" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="65" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B65" s="68">
-        <v>53</v>
-      </c>
-      <c r="C65" t="s">
-        <v>260</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="F65" t="s">
-        <v>191</v>
-      </c>
-      <c r="G65">
-        <v>4</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
         <v>206</v>
-      </c>
-      <c r="I65">
-        <v>-1</v>
-      </c>
-      <c r="J65" t="s">
-        <v>193</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -4841,20 +4897,19 @@
     <row r="590" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="591" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="592" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="593" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="594" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A12:T111" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="9">
+  <autoFilter ref="A12:T109" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="10">
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Y63:AB63"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="U8:U9"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pages/猫咪档案.xlsx
+++ b/pages/猫咪档案.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665B200D-000C-46AB-8A9C-068F6FA2C149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25502"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D224CBD-1F3D-4EB2-B5F7-B5E67BAC0783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,11 +13,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">校内喵!$A$12:$T$109</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -31,15 +28,12 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="262">
   <si>
     <t>建立档案：2019-03-30</t>
   </si>
@@ -51,19 +45,15 @@
   </si>
   <si>
     <t>图例：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>确认的信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>不确认的信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>期待别人填充的信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>性别说明：</t>
@@ -115,7 +105,6 @@
   </si>
   <si>
     <t>相较于上一次更新修改的信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改的信息审校合格之后，按照确信信息的格式记</t>
@@ -146,16 +135,14 @@
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>健康</t>
@@ -163,9 +150,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>==1个月内见到</t>
@@ -176,9 +162,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>离世</t>
@@ -186,9 +171,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>=喵星</t>
@@ -205,9 +189,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>许久未见</t>
@@ -215,9 +198,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>==3个月内见到</t>
@@ -240,9 +222,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>失踪</t>
@@ -250,9 +231,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>==3个月以久未见</t>
@@ -263,9 +243,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>口炎</t>
@@ -273,9 +252,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>==归类到在校</t>
@@ -295,9 +273,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>不明</t>
@@ -305,9 +282,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>==目击次数过少，
@@ -331,56 +307,45 @@
   </si>
   <si>
     <t>请按照严格按照格式书写 单元格格式设置为文本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是否写入图鉴</t>
   </si>
   <si>
     <t>昵称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>毛色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>毛色分类</t>
   </si>
   <si>
     <t>出没地点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>绝育</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>绝育时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>出生年月</t>
   </si>
   <si>
     <t>外貌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>性格</t>
@@ -393,18 +358,15 @@
   </si>
   <si>
     <t>关系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>更多</t>
   </si>
   <si>
     <t>线路</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>送养时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>离世时间</t>
@@ -413,85 +375,88 @@
     <t>离世原因</t>
   </si>
   <si>
+    <t>海珠-楼长</t>
+  </si>
+  <si>
     <t>肥肥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>黑白橘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>英东楼一二楼及门口空地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>健康</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>不太搭理人，不是很喜欢一直被撸，但不会有强烈攻击性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海珠-元宝</t>
   </si>
   <si>
     <t>大多出现在图书馆旁小树林，教学楼与英东楼中间地段，但是会到处跑</t>
   </si>
   <si>
     <t>黏糊人，给摸摸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狸花</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海珠-奶球</t>
   </si>
   <si>
     <t>678大院及周边地区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>咪咪的孩子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>睡醒时粘人会蹭手，爱吃，有点胆小</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海珠-小白</t>
   </si>
   <si>
     <t>纯白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>下午六到七点会在图书馆走向南门口红色装修地区旁及树林</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>怕人但贪吃，吃东西的时候可以偶尔摸得到</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海珠-圈圈</t>
   </si>
   <si>
     <t>橘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>喜欢蹭人，一般情况下给摸摸，贪吃</t>
   </si>
   <si>
+    <t>海珠-咪咪</t>
+  </si>
+  <si>
     <t>北区678大院及周边</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>奶球麻麻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>粘人，喊她咪咪听得懂话，会跟着人走</t>
   </si>
   <si>
+    <t>海珠-大黄</t>
+  </si>
+  <si>
     <t>小橘的邻居</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>黄大爷老前辈了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海珠-小艺</t>
   </si>
   <si>
     <t>跛跛</t>
@@ -503,64 +468,76 @@
     <t>小高冷，不太爱搭理人，但可以摸摸</t>
   </si>
   <si>
+    <t>海珠-绿茶</t>
+  </si>
+  <si>
     <t>茶茶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>英东楼一楼及周边地区</t>
   </si>
   <si>
     <t>贪吃，可以撸给吃的就亲人，饿了就喵喵叫，不太怕人，懒洋洋的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海珠-小橘</t>
   </si>
   <si>
     <t>橘白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>678栋大院以及周边区域</t>
   </si>
   <si>
     <t>大黄的邻居，呆呆的好朋友</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>已绝育，粘人，贪吃 ，可以摸，他心情好可以抱</t>
   </si>
   <si>
+    <t>海珠-大长腿</t>
+  </si>
+  <si>
     <t>英东楼整栋以及周边地区</t>
   </si>
   <si>
     <t>小七妈妈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>亲人，可以摸 会坐电梯，爱喝厕所水 （希望有同学看到制止一下</t>
   </si>
   <si>
+    <t>海珠-拎拎</t>
+  </si>
+  <si>
     <t>停车场旁小树林</t>
   </si>
   <si>
     <t>怕人，有点凶，不可以摸，后腿瘸 ，脏兮兮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海珠-兔兔</t>
   </si>
   <si>
     <t>678栋与篮球场之间的校道及周边地区</t>
   </si>
   <si>
     <t>长相漂亮的仙女长毛白喵，亲人，可以摸摸，爱吃，会蹭手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海珠-圆圆</t>
   </si>
   <si>
     <t>常驻南门停车场</t>
   </si>
   <si>
     <t>许久未见</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海珠-猫妈</t>
   </si>
   <si>
     <t>黑灰橘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>四角亭过去的居民楼附近（英东楼的背面）</t>
@@ -572,116 +549,153 @@
     <t>有点怕人，现在好像好一点，吃东西的时候可以摸到，很亲近居民楼的一户人家</t>
   </si>
   <si>
+    <t>海珠-仙女</t>
+  </si>
+  <si>
     <t>英东楼旁边花坛的树下面，有时候中午能看到它在睡觉晒太阳</t>
   </si>
   <si>
     <t>不怕人但也不亲人</t>
   </si>
   <si>
+    <t>海珠-小刘海</t>
+  </si>
+  <si>
     <t>英东楼及周边地区</t>
   </si>
   <si>
     <t>头上一撮刘海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>不亲人，但是爱吃</t>
   </si>
   <si>
+    <t>海珠-黑猫警长</t>
+  </si>
+  <si>
     <t>黑白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>南区f栋及周边地区</t>
   </si>
   <si>
     <t>全身黑色，四只脚白色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>警惕，怕人，跑得快，四只脚是白色称为四脚踏雪</t>
   </si>
   <si>
+    <t>海珠-阿花</t>
+  </si>
+  <si>
     <t>可摸，亲人，爱躺在F1栋旁边草地睡觉，最近有点小怕人，可能是受到过惊吓??</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海珠-奶牛</t>
   </si>
   <si>
     <t>晚上出没在停车场小树林及周边地区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>贪吃但怕人，如果你拿着吃的他可能会蹭你，但是不给你摸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海珠-小脏</t>
   </si>
   <si>
     <t>乐干楼空地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>全身脏脏的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>以前受过伤，特别怕人，从以前到现在身上都脏兮兮，好像不会给自己洗澡</t>
   </si>
   <si>
+    <t>海珠-小狮子</t>
+  </si>
+  <si>
     <t>特别贪吃，叫声奶奶的</t>
   </si>
   <si>
+    <t>海珠-一点白</t>
+  </si>
+  <si>
     <t>英东楼草坪</t>
   </si>
   <si>
     <t>脸上一点白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>警惕，怕人，因为脸上有一点白而命名</t>
   </si>
   <si>
+    <t>海珠-花花</t>
+  </si>
+  <si>
     <t>南区饭堂后面</t>
   </si>
   <si>
     <t>亲人，是有人散养的哦</t>
   </si>
   <si>
+    <t>海珠-南区大黄</t>
+  </si>
+  <si>
     <t>大橘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐干楼空地</t>
+  </si>
+  <si>
+    <t>海珠-胖子</t>
   </si>
   <si>
     <t>亲人，很喜欢被撸，但是也很谨慎，轻易靠近会吓跑它</t>
   </si>
   <si>
+    <t>海珠-呆呆</t>
+  </si>
+  <si>
     <t>北门口及周边</t>
   </si>
   <si>
     <t>小橘的好朋友</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>胆小，警惕，怕人，是小橘的好朋友</t>
   </si>
   <si>
+    <t>海珠-白毛狮王</t>
+  </si>
+  <si>
     <t>南区f栋楼下</t>
   </si>
   <si>
     <t>怕人，胆小，不给靠近，一靠近就跑</t>
   </si>
   <si>
+    <t>海珠-小桑</t>
+  </si>
+  <si>
     <t>怕人，谨慎</t>
   </si>
   <si>
+    <t>海珠-白手套</t>
+  </si>
+  <si>
     <t>怕人，胆小，谨慎，贪吃</t>
   </si>
   <si>
+    <t>海珠-大橘</t>
+  </si>
+  <si>
     <t>南门隔壁小花园</t>
   </si>
   <si>
     <t>吃东西时给摸摸，不吃的时候小高冷</t>
   </si>
   <si>
+    <t>海珠-海带</t>
+  </si>
+  <si>
     <t>英东楼草坪及周边</t>
   </si>
   <si>
@@ -689,14 +703,18 @@
   </si>
   <si>
     <t>怕人，胆小</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海珠-？</t>
   </si>
   <si>
     <t>科学楼及英东楼</t>
   </si>
   <si>
     <t>科学楼的同学们养的，偶尔会溜出去</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海珠-咕噜</t>
   </si>
   <si>
     <t>图书馆小树林</t>
@@ -705,37 +723,40 @@
     <t>亲人，粘人，蹲下来会主动爬到你腿上，给摸摸，但有时候会突然咬你（是跟你玩，不是攻击性）</t>
   </si>
   <si>
-    <t>送养</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>海珠-呼呼</t>
   </si>
   <si>
     <t>亲人，粘人，因为很爱打呼取名呼呼，跟咪咪长得很像。</t>
   </si>
   <si>
     <t>2021年11月13日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海珠-黄仔</t>
   </si>
   <si>
     <t>亲人，还是一只小猫，后腿有旧伤，曾经骨折过，骨头已经长变形，走路以后永远一瘸一拐。</t>
   </si>
   <si>
     <t>2021年12月10日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑白</t>
+  </si>
+  <si>
+    <t>白云-小黑</t>
+  </si>
+  <si>
+    <t>傻猫</t>
   </si>
   <si>
     <t>1栋~2栋宿舍楼对面草丛</t>
   </si>
   <si>
-    <t>健康</t>
-  </si>
-  <si>
     <t>白手套+白围脖</t>
   </si>
   <si>
-    <t>女明星，吃东西的时候任人摸，没东西吃可能不理人，窝在二栋对面的草丛里，有时可能住1栋对面的平台，之前被绽放美食的恶霸欺负，目前定居2栋对面</t>
+    <t>女明星，吃东西的时候任人摸，没东西吃可能不理人，之前被绽放美食的恶霸欺负，目前没固定住所，给窝也不住，自己会去三栋的杂物房躲雨，最近脚做了手术，要小心一些</t>
+  </si>
+  <si>
+    <t>白云-狗蛋</t>
   </si>
   <si>
     <t>何A楼长</t>
@@ -750,7 +771,10 @@
     <t>手脚颜色较浅</t>
   </si>
   <si>
-    <t>男明星，任人摸，还会在地上打滚，有时候会跑到实验室里找吃的</t>
+    <t>男明星，任人摸，还会在地上打滚，有时候会跑到实验室里找吃的。\n“狗蛋啊，那只经常在何A门口摸的那只小猫，猫粮是一口不吃，还和恶霸对哈，有修狗朋友。但是却死于其他狗狗口中，剩下仅有3年的躯壳。”</t>
+  </si>
+  <si>
+    <t>白云-月白</t>
   </si>
   <si>
     <t>白橘</t>
@@ -759,7 +783,13 @@
     <t>实验田一带</t>
   </si>
   <si>
-    <t>任人摸，会蹭人，怀孕期间因为担心她，一位小姐姐和其男朋友帮忙带去医院，后来找到了领养，猫宝宝2022年4月30日出生，目前宝宝们待领养中</t>
+    <t>任人摸，会蹭人，怀孕期间因为担心她，一位小姐姐和其男朋友帮忙带去医院，猫宝宝2022年4月30日出生。\n因为某些原因之前领养月白的人不再领养月白，所以目前月白和部分宝宝们都在待领养中。</t>
+  </si>
+  <si>
+    <t>白云-大兔</t>
+  </si>
+  <si>
+    <t>白云6栋附近</t>
   </si>
   <si>
     <t>脸看着有点脏</t>
@@ -768,7 +798,13 @@
     <t>（大兔小兔常在一起）</t>
   </si>
   <si>
-    <t>在校园通后面有喂食的碗和粮，有同学专门喂食，听到有东西吃的声音会出现，熟悉的可以浅摸一摸，不熟需要很谨慎</t>
+    <t>在校园通后面有喂食的碗和粮，有同学专门喂食，听到有东西吃的声音会出现，熟悉的可以浅摸一摸，不熟需要很谨慎。\n因台风天去喵星的大兔，希望你在喵星永远不会遇到台风天。</t>
+  </si>
+  <si>
+    <t>台风天把车吹倒了，被压住了</t>
+  </si>
+  <si>
+    <t>白云-小兔</t>
   </si>
   <si>
     <t>脸不脏</t>
@@ -777,6 +813,9 @@
     <t>在校园通后面有喂食的碗和粮，有同学专门喂食，听到有东西吃的声音会出现呢，熟悉的可以浅摸一摸，不熟需要很谨慎</t>
   </si>
   <si>
+    <t>白云-两点</t>
+  </si>
+  <si>
     <t>白（头上有黑点）</t>
   </si>
   <si>
@@ -789,56 +828,97 @@
     <t>头上有三点，有两点偏小</t>
   </si>
   <si>
+    <t>“两点小朋友，提早和你说一句儿童节快乐，回到喵星的你一定要开心，下辈子我们不要再流浪啦”。说句实在的，如果猫猫是人，也忍受不了散养的生活，甚至连流浪都不如。</t>
+  </si>
+  <si>
+    <t>口炎+细菌感染+猫艾滋。于2022年5月31日16时20分安乐死。手术医院为嘉禾望岗同健宠物医院。</t>
+  </si>
+  <si>
+    <t>白云-零点</t>
+  </si>
+  <si>
     <t>白</t>
   </si>
   <si>
-    <t>是个宝妈，宝宝大部分被带走了，奶球是她的孩子</t>
-  </si>
-  <si>
-    <t>黑白橘</t>
+    <t>是个宝妈，宝宝大部分被带走了，奶球是她的孩子，最近再次怀上了宝宝</t>
+  </si>
+  <si>
+    <t>白云-三点半</t>
   </si>
   <si>
     <t>接零点后俩星期左右生宝宝，挺亲人的，五个宝宝只剩下两只了</t>
   </si>
   <si>
+    <t>白云-黄黄</t>
+  </si>
+  <si>
     <t>失踪</t>
   </si>
   <si>
     <t>是2021年十一月份被夹到的那只猫猫，这学期开始见到过，失踪好久</t>
   </si>
   <si>
-    <t>有意转让给其他同学，偶尔会跑出宿舍外面玩</t>
+    <t>白云-小豹子</t>
+  </si>
+  <si>
+    <t>7栋（因年龄小由两名同学暂时领养）</t>
+  </si>
+  <si>
+    <t>脾气很好哦，但是因为铲屎官毕业，有意转让给其他同学，偶尔会跑出宿舍外面玩，目前暑假有人代养</t>
+  </si>
+  <si>
+    <t>白云-奶球</t>
   </si>
   <si>
     <t>零点的娃娃，很活泼，喜欢跑别人鞋上</t>
   </si>
   <si>
+    <t>白云-？</t>
+  </si>
+  <si>
+    <t>白云旧饭车棚</t>
+  </si>
+  <si>
     <t>吃旧饭的垃圾为生，有时候会去吃大兔小兔的粮，目前直接用手喂不会吃</t>
   </si>
   <si>
-    <t>橘白</t>
+    <t>白云-团团</t>
+  </si>
+  <si>
+    <t>之前吃旧饭的垃圾为生，经常会去吃大兔小兔的粮，最近投靠了小黑</t>
+  </si>
+  <si>
+    <t>白云-黑猪</t>
   </si>
   <si>
     <t>黑</t>
   </si>
   <si>
-    <t>许久未见</t>
+    <t>在白云教职工宿舍那边见过几次</t>
   </si>
   <si>
     <t>发情ing，被同学看见过，想抓去绝育的时候就没见着了，靠近不了</t>
   </si>
   <si>
-    <t>欺负小黑的就是它，但怂人，现在经常跑到狗蛋那里“偷”粮，相对之前没那么怕人了，给粮会吃了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>白云-恶霸</t>
+  </si>
+  <si>
+    <t>在狗蛋那边共处，有时候去旧饭</t>
+  </si>
+  <si>
+    <t>欺负小黑的就是它，但怂人，现在经常跑到狗蛋那里“偷”粮，相对之前没那么怕人了，给粮会吃了，之前打架受伤了被关禁闭了一段时间，现在已经放出来啦！</t>
+  </si>
+  <si>
+    <t>白云-咪咪</t>
   </si>
   <si>
     <t>基本上在何A  6楼</t>
   </si>
   <si>
-    <t>不明</t>
-  </si>
-  <si>
-    <t>胆小，狗蛋的伙伴，不会到处跑，很难发现它，喜欢吃好吃的</t>
+    <t>胆小，狗蛋的伙伴，不会到处跑，在6楼实验室窝着，很难在实验室外发现它，喜欢吃好吃的</t>
+  </si>
+  <si>
+    <t>白云-点点</t>
   </si>
   <si>
     <t>教职工宿舍</t>
@@ -848,262 +928,6 @@
   </si>
   <si>
     <t>是两点、零点、三点半的妈妈，跟黄黄是兄妹，很少见到</t>
-  </si>
-  <si>
-    <t>离世</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>口炎+细菌感染+猫艾滋。于2022年5月31日16时20分安乐死。手术医院为嘉禾望岗同健宠物医院。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云旧饭车棚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在白云教职工宿舍那边见过几次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在狗蛋那边共处，有时候去旧饭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7栋（因年龄小由两名同学暂时领养）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云6栋附近</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D栋小花园旁的教职工宿舍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-楼长</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-元宝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-奶球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-小白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-圈圈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-咪咪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-大黄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-小艺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-绿茶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-小橘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-大长腿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-拎拎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-兔兔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-圆圆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-猫妈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-仙女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-小刘海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-黑猫警长</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-阿花</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-奶牛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-小脏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-小狮子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-一点白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-花花</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-南区大黄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-胖子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-呆呆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-白毛狮王</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-小桑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-白手套</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-大橘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-海带</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-咕噜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-呼呼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠-黄仔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云-小黑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>傻猫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云-狗蛋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云-月白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云-大兔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云-小兔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云-两点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云-零点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云-三点半</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云-黄黄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云-小豹子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云-奶球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云-？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云-团团</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云-黑猪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云-恶霸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云-咪咪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云-点点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022年05月31日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>“两点小朋友，提早和你说一句儿童节快乐，回到喵星的你一定要开心，下辈子我们不要再流浪啦”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1113,112 +937,66 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1230,26 +1008,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFD9E3F3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFFBE4D5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1260,6 +1032,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE4D5"/>
       </patternFill>
     </fill>
     <fill>
@@ -1279,27 +1056,27 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1307,20 +1084,42 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1328,17 +1127,28 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -1348,7 +1158,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -1356,33 +1166,37 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1390,290 +1204,233 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="72">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="18" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="20">
-    <cellStyle name="20% - 着色 2" xfId="1" builtinId="34"/>
-    <cellStyle name="差" xfId="18" builtinId="27"/>
+  <cellStyles count="4">
+    <cellStyle name="20% - 着色 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="差" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="适中" xfId="19" builtinId="28"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="适中" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1941,11 +1698,6 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -1953,340 +1705,337 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI592"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="12" topLeftCell="R50" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S55" sqref="S55"/>
+    <sheetView tabSelected="1" topLeftCell="P43" zoomScale="70" workbookViewId="0">
+      <selection activeCell="S53" sqref="S53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="1"/>
-    <col min="2" max="2" width="8.77734375" style="2"/>
-    <col min="3" max="3" width="10.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="8.75" style="2"/>
+    <col min="3" max="3" width="10.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="6"/>
-    <col min="10" max="10" width="10.33203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" style="3"/>
-    <col min="12" max="12" width="12.77734375" style="8" customWidth="1"/>
-    <col min="13" max="13" width="15" style="8" customWidth="1"/>
-    <col min="14" max="14" width="40.33203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="24.33203125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="21.44140625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="22.33203125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="18.77734375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="20.109375" style="3" customWidth="1"/>
-    <col min="22" max="23" width="17.44140625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="15.44140625" style="12" customWidth="1"/>
-    <col min="25" max="25" width="12.44140625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="8.77734375" style="3"/>
-    <col min="27" max="27" width="13.44140625" style="3" customWidth="1"/>
-    <col min="28" max="28" width="8.77734375" style="3"/>
-    <col min="29" max="29" width="10.44140625" style="3" customWidth="1"/>
-    <col min="30" max="16384" width="8.77734375" style="3"/>
+    <col min="8" max="8" width="21.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="4"/>
+    <col min="10" max="10" width="10.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="3"/>
+    <col min="12" max="12" width="12.75" style="5" customWidth="1"/>
+    <col min="13" max="13" width="15" style="5" customWidth="1"/>
+    <col min="14" max="14" width="40.375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="3" customWidth="1"/>
+    <col min="16" max="16" width="24.375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="21.5" style="3" customWidth="1"/>
+    <col min="18" max="18" width="22.375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="20.5" style="3" customWidth="1"/>
+    <col min="20" max="20" width="18.75" style="3" customWidth="1"/>
+    <col min="21" max="21" width="20.125" style="3" customWidth="1"/>
+    <col min="22" max="23" width="17.5" style="3" customWidth="1"/>
+    <col min="24" max="24" width="15.5" style="7" customWidth="1"/>
+    <col min="25" max="25" width="12.5" style="3" customWidth="1"/>
+    <col min="26" max="26" width="8.75" style="3"/>
+    <col min="27" max="27" width="13.5" style="3" customWidth="1"/>
+    <col min="28" max="28" width="8.75" style="3"/>
+    <col min="29" max="29" width="10.5" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29">
       <c r="E2" s="1"/>
-      <c r="I2" s="5"/>
+      <c r="I2" s="8"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:29">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="2"/>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="66" t="s">
+      <c r="G3" s="67"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="13" t="s">
+      <c r="K3" s="70"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="13">
         <v>6</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="61" t="s">
+      <c r="U3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="7"/>
-      <c r="X3" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="18" t="s">
+      <c r="W3" s="9"/>
+      <c r="X3" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AA3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AB3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AC3" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="E4" s="1"/>
-      <c r="I4" s="5"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="19" t="s">
+      <c r="I4" s="8"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="19">
         <v>5</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="62"/>
-      <c r="X4" s="23" t="s">
+      <c r="U4" s="57"/>
+      <c r="X4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Y4" s="24" t="s">
+      <c r="Y4" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
+    <row r="5" spans="1:29" ht="15" customHeight="1">
+      <c r="B5" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
-      <c r="H5" s="58" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
+      <c r="H5" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="25" t="s">
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="P5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="19">
         <v>4</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="62"/>
+      <c r="U5" s="57"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="S6" s="21">
+    <row r="6" spans="1:29">
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="S6" s="19">
         <v>3</v>
       </c>
-      <c r="T6" s="22" t="s">
+      <c r="T6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="W6" s="7"/>
-      <c r="X6" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="18" t="s">
+      <c r="W6" s="9"/>
+      <c r="X6" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AA6" s="7" t="s">
+      <c r="AA6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AB6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AC6" s="10" t="s">
+      <c r="AC6" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="I7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="O7" s="7" t="s">
+    <row r="7" spans="1:29">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="I7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="O7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="18" t="s">
+      <c r="Q7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="19">
         <v>2</v>
       </c>
-      <c r="T7" s="22" t="s">
+      <c r="T7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U7" s="62"/>
-      <c r="X7" s="21">
+      <c r="U7" s="57"/>
+      <c r="X7" s="19">
         <v>2</v>
       </c>
-      <c r="Y7" s="27" t="s">
+      <c r="Y7" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="I8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="P8" s="49" t="s">
+    <row r="8" spans="1:29">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="I8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="P8" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="41" t="s">
+      <c r="Q8" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="21">
-        <v>1</v>
-      </c>
-      <c r="T8" s="22" t="s">
+      <c r="S8" s="19">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U8" s="62" t="s">
+      <c r="U8" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="X8" s="21">
+      <c r="X8" s="19">
         <v>3</v>
       </c>
-      <c r="Y8" s="27" t="s">
+      <c r="Y8" s="26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="I9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="P9" s="49" t="s">
+    <row r="9" spans="1:29">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="I9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="P9" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="S9" s="21">
-        <v>0</v>
-      </c>
-      <c r="T9" s="22" t="s">
+      <c r="S9" s="19">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="U9" s="62"/>
-      <c r="X9" s="21">
+      <c r="U9" s="57"/>
+      <c r="X9" s="19">
         <v>4</v>
       </c>
-      <c r="Y9" s="27" t="s">
+      <c r="Y9" s="26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="I10" s="4"/>
+    <row r="10" spans="1:29">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="P10" s="56" t="s">
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="P10" s="64" t="s">
         <v>48</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="20">
         <v>-1</v>
       </c>
-      <c r="T10" s="28" t="s">
+      <c r="T10" s="51" t="s">
         <v>50</v>
       </c>
       <c r="U10" s="29"/>
-      <c r="X10" s="23">
+      <c r="X10" s="20">
         <v>5</v>
       </c>
-      <c r="Y10" s="24" t="s">
+      <c r="Y10" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="15.6">
       <c r="F11" s="30" t="s">
         <v>52</v>
       </c>
@@ -2296,18 +2045,18 @@
       <c r="J11" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="42" t="s">
+      <c r="L11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="4"/>
+      <c r="M11" s="6"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="6"/>
       <c r="U11" s="30" t="s">
         <v>54</v>
       </c>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -2332,7 +2081,7 @@
       <c r="H12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="6" t="s">
         <v>63</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -2341,10 +2090,10 @@
       <c r="K12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="6" t="s">
         <v>66</v>
       </c>
       <c r="N12" s="3" t="s">
@@ -2353,10 +2102,10 @@
       <c r="O12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="Q12" s="22" t="s">
+      <c r="Q12" s="3" t="s">
         <v>70</v>
       </c>
       <c r="R12" s="3" t="s">
@@ -2384,285 +2133,285 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="15.6">
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="43" t="s">
         <v>78</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="G13" s="3">
         <v>4</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="55">
-        <v>0</v>
-      </c>
-      <c r="J13" s="31" t="s">
         <v>80</v>
       </c>
+      <c r="I13" s="33">
+        <v>0</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="K13" s="3">
         <v>1</v>
       </c>
-      <c r="L13" s="32"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34">
+      <c r="L13" s="35"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="37">
         <v>2</v>
       </c>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="11"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="24"/>
       <c r="S13" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29">
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="11">
+      <c r="F14" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="24">
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="55">
+        <v>84</v>
+      </c>
+      <c r="I14" s="33">
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="K14" s="3">
         <v>1</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="11">
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="24">
         <v>6</v>
       </c>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="11"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="24"/>
       <c r="S14" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="B15" s="2">
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>218</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="6">
+        <v>87</v>
+      </c>
+      <c r="I15" s="4">
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="37">
-        <v>1</v>
-      </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="K15" s="34">
+        <v>1</v>
+      </c>
+      <c r="L15" s="52"/>
+      <c r="M15" s="6"/>
       <c r="O15" s="3">
         <v>1</v>
       </c>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="11"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="24"/>
       <c r="R15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29">
       <c r="B16" s="2">
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>219</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="F16" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="39">
+      <c r="F16" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="40">
         <v>5</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="6">
+        <v>92</v>
+      </c>
+      <c r="I16" s="4">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="33"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="36"/>
       <c r="O16" s="3">
         <v>2</v>
       </c>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="11"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="24"/>
       <c r="S16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="U16" s="40"/>
+        <v>93</v>
+      </c>
+      <c r="U16" s="41"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24">
       <c r="B17" s="2">
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="F17" s="39" t="s">
-        <v>91</v>
+      <c r="F17" s="40" t="s">
+        <v>95</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" s="6">
+        <v>92</v>
+      </c>
+      <c r="I17" s="4">
         <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="O17" s="37">
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="O17" s="34">
         <v>3</v>
       </c>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="11"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="24"/>
       <c r="S17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="U17" s="40"/>
+        <v>96</v>
+      </c>
+      <c r="U17" s="41"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24">
       <c r="B18" s="2">
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>221</v>
+        <v>97</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="11">
+      <c r="F18" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="24">
         <v>1</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="6">
+        <v>98</v>
+      </c>
+      <c r="I18" s="4">
         <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K18" s="3">
         <v>1</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="37">
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="34">
         <v>5</v>
       </c>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="33" t="s">
-        <v>94</v>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="36" t="s">
+        <v>99</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" customFormat="1">
       <c r="B19" s="2">
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
       </c>
-      <c r="F19" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="11">
+      <c r="F19" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="24">
         <v>2</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" s="6">
+        <v>87</v>
+      </c>
+      <c r="I19" s="4">
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K19" s="3">
         <v>1</v>
@@ -2671,39 +2420,39 @@
         <v>4</v>
       </c>
       <c r="R19" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="S19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" customFormat="1">
       <c r="B20" s="2">
         <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>78</v>
+        <v>105</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>79</v>
       </c>
       <c r="G20">
         <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" s="6">
+        <v>106</v>
+      </c>
+      <c r="I20" s="4">
         <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K20" s="3">
         <v>1</v>
@@ -2712,36 +2461,36 @@
         <v>4</v>
       </c>
       <c r="S20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" customFormat="1">
       <c r="B21" s="2">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>84</v>
+        <v>109</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>102</v>
-      </c>
-      <c r="I21" s="6">
+        <v>110</v>
+      </c>
+      <c r="I21" s="4">
         <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K21" s="3">
         <v>1</v>
@@ -2750,33 +2499,33 @@
         <v>3</v>
       </c>
       <c r="S21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" customFormat="1">
       <c r="B22" s="2">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>225</v>
+        <v>112</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="39" t="s">
-        <v>104</v>
+      <c r="F22" s="40" t="s">
+        <v>113</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="6">
+        <v>114</v>
+      </c>
+      <c r="I22" s="4">
         <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K22" s="3">
         <v>1</v>
@@ -2785,36 +2534,36 @@
         <v>4</v>
       </c>
       <c r="R22" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="S22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" customFormat="1">
       <c r="B23" s="2">
         <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>226</v>
+        <v>117</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
       </c>
-      <c r="F23" s="39" t="s">
-        <v>104</v>
+      <c r="F23" s="40" t="s">
+        <v>113</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>108</v>
-      </c>
-      <c r="I23" s="6">
+        <v>118</v>
+      </c>
+      <c r="I23" s="4">
         <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K23" s="3">
         <v>1</v>
@@ -2823,36 +2572,36 @@
         <v>5</v>
       </c>
       <c r="R23" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="S23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" customFormat="1">
       <c r="B24" s="2">
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>121</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="39" t="s">
-        <v>88</v>
+      <c r="F24" s="40" t="s">
+        <v>91</v>
       </c>
       <c r="G24">
         <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>111</v>
-      </c>
-      <c r="I24" s="6">
+        <v>122</v>
+      </c>
+      <c r="I24" s="4">
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
@@ -2861,33 +2610,33 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" customFormat="1">
       <c r="B25" s="2">
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
       </c>
-      <c r="F25" s="39" t="s">
-        <v>78</v>
+      <c r="F25" s="40" t="s">
+        <v>79</v>
       </c>
       <c r="G25">
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" s="6">
+        <v>125</v>
+      </c>
+      <c r="I25" s="4">
         <v>0</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -2896,33 +2645,33 @@
         <v>5</v>
       </c>
       <c r="S25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" customFormat="1">
       <c r="B26" s="2">
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>229</v>
+        <v>127</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
       </c>
-      <c r="F26" s="39" t="s">
-        <v>78</v>
+      <c r="F26" s="40" t="s">
+        <v>79</v>
       </c>
       <c r="G26">
         <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" s="6">
+        <v>128</v>
+      </c>
+      <c r="I26" s="4">
         <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="K26" s="3">
         <v>1</v>
@@ -2930,32 +2679,32 @@
       <c r="O26">
         <v>5</v>
       </c>
-      <c r="S26" s="44"/>
-    </row>
-    <row r="27" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S26" s="42"/>
+    </row>
+    <row r="27" spans="2:24" customFormat="1">
       <c r="B27" s="2">
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
       </c>
-      <c r="F27" s="39" t="s">
-        <v>117</v>
+      <c r="F27" s="40" t="s">
+        <v>131</v>
       </c>
       <c r="G27">
         <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I27" s="6">
+        <v>132</v>
+      </c>
+      <c r="I27" s="4">
         <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K27" s="3">
         <v>1</v>
@@ -2964,36 +2713,36 @@
         <v>2</v>
       </c>
       <c r="S27" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="T27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" customFormat="1">
       <c r="B28" s="2">
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>231</v>
+        <v>135</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
       </c>
-      <c r="F28" s="39" t="s">
-        <v>104</v>
+      <c r="F28" s="40" t="s">
+        <v>113</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>121</v>
-      </c>
-      <c r="I28" s="6">
+        <v>136</v>
+      </c>
+      <c r="I28" s="4">
         <v>-1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K28" s="3">
         <v>-1</v>
@@ -3002,109 +2751,109 @@
         <v>4</v>
       </c>
       <c r="S28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" customFormat="1">
       <c r="B29" s="2">
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>232</v>
+        <v>138</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="39" t="s">
-        <v>88</v>
+      <c r="F29" s="40" t="s">
+        <v>91</v>
       </c>
       <c r="G29">
         <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I29" s="6">
+        <v>139</v>
+      </c>
+      <c r="I29" s="4">
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K29" s="3">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="O29">
         <v>1</v>
       </c>
       <c r="S29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" customFormat="1">
       <c r="B30" s="2">
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>233</v>
+        <v>142</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
       </c>
-      <c r="F30" s="39" t="s">
-        <v>126</v>
+      <c r="F30" s="40" t="s">
+        <v>143</v>
       </c>
       <c r="G30">
         <v>3</v>
       </c>
-      <c r="H30" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I30" s="6">
+      <c r="H30" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="4">
         <v>0</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" customFormat="1">
       <c r="B31" s="2">
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
       </c>
-      <c r="F31" s="39" t="s">
-        <v>78</v>
+      <c r="F31" s="40" t="s">
+        <v>79</v>
       </c>
       <c r="G31">
         <v>4</v>
       </c>
-      <c r="H31" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I31" s="6">
+      <c r="H31" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="4">
         <v>0</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K31" s="3">
         <v>1</v>
@@ -3113,33 +2862,33 @@
         <v>5</v>
       </c>
       <c r="S31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" customFormat="1">
       <c r="B32" s="2">
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="39" t="s">
-        <v>126</v>
+      <c r="F32" s="40" t="s">
+        <v>143</v>
       </c>
       <c r="G32">
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>131</v>
-      </c>
-      <c r="I32" s="6">
+        <v>150</v>
+      </c>
+      <c r="I32" s="4">
         <v>1</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K32" s="3">
         <v>1</v>
@@ -3148,71 +2897,71 @@
         <v>1</v>
       </c>
       <c r="S32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" customFormat="1">
       <c r="B33" s="2">
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>236</v>
+        <v>152</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
       </c>
-      <c r="F33" s="39" t="s">
-        <v>84</v>
+      <c r="F33" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>133</v>
-      </c>
-      <c r="I33" s="6">
+        <v>153</v>
+      </c>
+      <c r="I33" s="4">
         <v>-1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K33" s="3">
         <v>-1</v>
       </c>
       <c r="N33" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" customFormat="1">
       <c r="B34" s="2">
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
       </c>
-      <c r="F34" s="39" t="s">
-        <v>84</v>
+      <c r="F34" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>133</v>
-      </c>
-      <c r="I34" s="6">
+        <v>153</v>
+      </c>
+      <c r="I34" s="4">
         <v>-1</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K34" s="3">
         <v>-1</v>
@@ -3221,71 +2970,71 @@
         <v>3</v>
       </c>
       <c r="S34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" customFormat="1">
       <c r="B35" s="2">
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
       </c>
-      <c r="F35" s="39" t="s">
-        <v>126</v>
+      <c r="F35" s="40" t="s">
+        <v>143</v>
       </c>
       <c r="G35">
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>137</v>
-      </c>
-      <c r="I35" s="6">
+        <v>159</v>
+      </c>
+      <c r="I35" s="4">
         <v>-1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K35" s="3">
         <v>-1</v>
       </c>
       <c r="N35" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" customFormat="1">
       <c r="B36" s="2">
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
       </c>
-      <c r="F36" s="39" t="s">
-        <v>84</v>
+      <c r="F36" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>140</v>
-      </c>
-      <c r="I36" s="6">
+        <v>163</v>
+      </c>
+      <c r="I36" s="4">
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K36" s="3">
         <v>1</v>
@@ -3294,36 +3043,36 @@
         <v>5</v>
       </c>
       <c r="S36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" customFormat="1">
       <c r="B37" s="2">
         <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
-      </c>
-      <c r="F37" s="39" t="s">
-        <v>104</v>
+        <v>166</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>113</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
-      </c>
-      <c r="I37" s="6">
+        <v>163</v>
+      </c>
+      <c r="I37" s="4">
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -3332,33 +3081,33 @@
         <v>5</v>
       </c>
       <c r="S37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" customFormat="1">
       <c r="B38" s="2">
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
       </c>
-      <c r="F38" s="39" t="s">
-        <v>84</v>
+      <c r="F38" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>143</v>
-      </c>
-      <c r="I38" s="6">
+        <v>153</v>
+      </c>
+      <c r="I38" s="4">
         <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -3367,33 +3116,33 @@
         <v>4</v>
       </c>
       <c r="S38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" customFormat="1">
       <c r="B39" s="2">
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
       </c>
-      <c r="F39" s="39" t="s">
-        <v>126</v>
+      <c r="F39" s="40" t="s">
+        <v>143</v>
       </c>
       <c r="G39">
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>145</v>
-      </c>
-      <c r="I39" s="6">
+        <v>170</v>
+      </c>
+      <c r="I39" s="4">
         <v>-1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K39" s="3">
         <v>-1</v>
@@ -3402,36 +3151,36 @@
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="S39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" customFormat="1">
       <c r="B40" s="2">
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
       </c>
-      <c r="F40" s="39" t="s">
-        <v>88</v>
+      <c r="F40" s="40" t="s">
+        <v>91</v>
       </c>
       <c r="G40">
         <v>5</v>
       </c>
       <c r="H40" t="s">
-        <v>148</v>
-      </c>
-      <c r="I40" s="6">
+        <v>174</v>
+      </c>
+      <c r="I40" s="4">
         <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -3440,33 +3189,33 @@
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" customFormat="1">
       <c r="B41" s="2">
         <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="F41" s="39" t="s">
-        <v>84</v>
+      <c r="F41" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>143</v>
-      </c>
-      <c r="I41" s="6">
+        <v>153</v>
+      </c>
+      <c r="I41" s="4">
         <v>-1</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K41" s="3">
         <v>-1</v>
@@ -3475,34 +3224,34 @@
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>150</v>
-      </c>
-      <c r="U41" s="45"/>
-    </row>
-    <row r="42" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="U41" s="43"/>
+    </row>
+    <row r="42" spans="2:21" customFormat="1">
       <c r="B42" s="2">
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
       </c>
-      <c r="F42" s="39" t="s">
-        <v>84</v>
+      <c r="F42" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>143</v>
-      </c>
-      <c r="I42" s="6">
+        <v>153</v>
+      </c>
+      <c r="I42" s="4">
         <v>-1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K42" s="3">
         <v>-1</v>
@@ -3511,33 +3260,33 @@
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" customFormat="1">
       <c r="B43" s="2">
         <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="39" t="s">
-        <v>104</v>
+      <c r="F43" s="40" t="s">
+        <v>113</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>152</v>
-      </c>
-      <c r="I43" s="6">
+        <v>181</v>
+      </c>
+      <c r="I43" s="4">
         <v>1</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K43" s="3">
         <v>1</v>
@@ -3546,33 +3295,33 @@
         <v>4</v>
       </c>
       <c r="S43" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" customFormat="1">
       <c r="B44" s="2">
         <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="39" t="s">
-        <v>84</v>
+      <c r="F44" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>154</v>
-      </c>
-      <c r="I44" s="6">
+        <v>184</v>
+      </c>
+      <c r="I44" s="4">
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -3581,36 +3330,36 @@
         <v>0</v>
       </c>
       <c r="R44" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="S44" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" customFormat="1">
       <c r="B45" s="2">
         <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="39" t="s">
-        <v>91</v>
+      <c r="F45" s="40" t="s">
+        <v>95</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>157</v>
-      </c>
-      <c r="I45" s="6">
+        <v>188</v>
+      </c>
+      <c r="I45" s="4">
         <v>1</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3619,33 +3368,33 @@
         <v>-1</v>
       </c>
       <c r="S45" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" customFormat="1">
       <c r="B46" s="2">
         <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
       </c>
-      <c r="F46" s="39" t="s">
-        <v>91</v>
+      <c r="F46" s="40" t="s">
+        <v>95</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
       <c r="H46" t="s">
-        <v>159</v>
-      </c>
-      <c r="I46" s="6">
+        <v>191</v>
+      </c>
+      <c r="I46" s="4">
         <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K46" s="3">
         <v>1</v>
@@ -3654,31 +3403,31 @@
         <v>5</v>
       </c>
       <c r="S46" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" customFormat="1">
       <c r="B47" s="2">
         <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="D47" s="3">
         <v>2</v>
       </c>
-      <c r="F47" s="39" t="s">
-        <v>84</v>
+      <c r="F47" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47" s="3"/>
-      <c r="I47" s="6">
+      <c r="I47" s="4">
         <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="K47" s="3">
         <v>1</v>
@@ -3687,146 +3436,149 @@
         <v>5</v>
       </c>
       <c r="S47" t="s">
-        <v>162</v>
-      </c>
-      <c r="U47" s="46" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="U47" s="44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" customFormat="1">
       <c r="B48" s="2">
         <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="D48" s="3">
         <v>2</v>
       </c>
-      <c r="F48" s="39" t="s">
-        <v>91</v>
+      <c r="F48" s="40" t="s">
+        <v>95</v>
       </c>
       <c r="G48">
         <v>2</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="O48">
         <v>5</v>
       </c>
       <c r="S48" t="s">
-        <v>164</v>
-      </c>
-      <c r="U48" s="46" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="2:35" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="U48" s="44" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="2:35" customFormat="1" ht="13.9">
       <c r="B49">
         <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="F49" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="G49">
         <v>4</v>
       </c>
       <c r="H49" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="O49">
         <v>3</v>
       </c>
-      <c r="S49" s="51" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S49" s="54" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="2:35" customFormat="1">
       <c r="B50">
         <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="D50" s="3">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="G50">
         <v>4</v>
       </c>
       <c r="H50" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="O50">
         <v>6</v>
       </c>
       <c r="S50" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="V50">
+        <v>20220629</v>
+      </c>
+    </row>
+    <row r="51" spans="2:35" customFormat="1">
       <c r="B51">
         <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="D51" s="3">
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="G51">
         <v>2</v>
       </c>
       <c r="H51" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51" s="51" t="s">
+      <c r="J51" s="54" t="s">
         <v>39</v>
       </c>
       <c r="K51">
@@ -3835,163 +3587,169 @@
       <c r="O51">
         <v>5</v>
       </c>
-      <c r="S51" s="51" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S51" s="45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="2:35" customFormat="1" ht="15">
       <c r="B52">
         <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="O52">
         <v>1</v>
       </c>
-      <c r="R52" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="S52" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R52" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="S52" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="V52" s="56">
+        <v>44744</v>
+      </c>
+      <c r="W52" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="2:35" customFormat="1">
       <c r="B53">
         <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="G53">
         <v>2</v>
       </c>
       <c r="H53" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="O53">
         <v>1</v>
       </c>
-      <c r="R53" s="50" t="s">
-        <v>180</v>
+      <c r="R53" s="46" t="s">
+        <v>217</v>
       </c>
       <c r="S53" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="54" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="2:35" customFormat="1">
       <c r="B54">
         <v>42</v>
       </c>
-      <c r="C54" s="51" t="s">
-        <v>258</v>
+      <c r="C54" s="54" t="s">
+        <v>223</v>
       </c>
       <c r="D54" s="3">
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="G54">
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="N54" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="O54">
         <v>4</v>
       </c>
       <c r="S54" t="s">
-        <v>271</v>
-      </c>
-      <c r="V54" s="46" t="s">
-        <v>270</v>
+        <v>228</v>
+      </c>
+      <c r="V54" s="47">
+        <v>44712</v>
       </c>
       <c r="W54" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="55" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="2:35" customFormat="1">
       <c r="B55">
         <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="D55" s="3">
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="G55">
         <v>5</v>
       </c>
       <c r="H55" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -3999,34 +3757,34 @@
       <c r="O55">
         <v>4</v>
       </c>
-      <c r="S55" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S55" s="54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="2:35" customFormat="1">
       <c r="B56">
         <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="D56" s="3">
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="G56">
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -4035,33 +3793,33 @@
         <v>5</v>
       </c>
       <c r="S56" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="57" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" spans="2:35" customFormat="1">
       <c r="B57">
         <v>45</v>
       </c>
-      <c r="C57" s="51" t="s">
-        <v>261</v>
+      <c r="C57" s="54" t="s">
+        <v>235</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="G57">
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57" s="51" t="s">
-        <v>192</v>
+      <c r="J57" s="54" t="s">
+        <v>236</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -4070,101 +3828,101 @@
         <v>-1</v>
       </c>
       <c r="S57" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="58" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="2:35" customFormat="1">
       <c r="B58">
         <v>46</v>
       </c>
       <c r="C58" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="G58">
         <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="O58">
         <v>3</v>
       </c>
-      <c r="S58" s="51" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="59" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S58" s="54" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="2:35" customFormat="1">
       <c r="B59">
         <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="G59">
         <v>5</v>
       </c>
       <c r="H59" t="s">
-        <v>185</v>
-      </c>
-      <c r="I59" s="47"/>
+        <v>225</v>
+      </c>
+      <c r="I59" s="53"/>
       <c r="J59" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="60" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="2:35" customFormat="1">
       <c r="B60">
         <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="D60" s="3">
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="G60">
         <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="K60">
         <v>-1</v>
@@ -4173,33 +3931,33 @@
         <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="2:35" customFormat="1">
       <c r="B61">
         <v>49</v>
       </c>
       <c r="C61" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="D61" s="3">
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="G61">
         <v>2</v>
       </c>
       <c r="H61" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="I61">
         <v>-1</v>
       </c>
       <c r="J61" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="K61">
         <v>-1</v>
@@ -4207,34 +3965,34 @@
       <c r="O61">
         <v>0</v>
       </c>
-      <c r="S61" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="62" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S61" s="45" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="2:35" customFormat="1">
       <c r="B62">
         <v>50</v>
       </c>
       <c r="C62" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="G62">
         <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62" s="51" t="s">
-        <v>199</v>
+      <c r="J62" s="54" t="s">
+        <v>129</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -4243,84 +4001,84 @@
         <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="2:35" customFormat="1">
       <c r="B63">
         <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D63" s="3">
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="G63">
         <v>2</v>
       </c>
-      <c r="H63" s="51" t="s">
-        <v>212</v>
+      <c r="H63" s="54" t="s">
+        <v>253</v>
       </c>
       <c r="I63">
         <v>-1</v>
       </c>
       <c r="J63" t="s">
-        <v>168</v>
-      </c>
-      <c r="K63" s="51">
+        <v>81</v>
+      </c>
+      <c r="K63" s="54">
         <v>0</v>
       </c>
       <c r="O63">
         <v>0</v>
       </c>
-      <c r="S63" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="T63" s="53"/>
-      <c r="U63" s="53"/>
-      <c r="V63" s="54"/>
+      <c r="S63" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="T63" s="49"/>
+      <c r="U63" s="49"/>
+      <c r="V63" s="16"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
-      <c r="Y63" s="58"/>
-      <c r="Z63" s="59"/>
-      <c r="AA63" s="59"/>
-      <c r="AB63" s="60"/>
-      <c r="AC63" s="4"/>
-      <c r="AD63" s="4"/>
-      <c r="AE63" s="25"/>
+      <c r="Y63" s="61"/>
+      <c r="Z63" s="62"/>
+      <c r="AA63" s="62"/>
+      <c r="AB63" s="63"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="22"/>
       <c r="AF63" s="3"/>
-      <c r="AG63" s="26"/>
+      <c r="AG63" s="23"/>
       <c r="AH63" s="3"/>
       <c r="AI63" s="3"/>
     </row>
-    <row r="64" spans="2:35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:35" customFormat="1" ht="15">
       <c r="B64">
         <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D64" s="3">
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="G64">
         <v>4</v>
       </c>
       <c r="H64" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="I64">
         <v>-1</v>
       </c>
       <c r="J64" t="s">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -4328,591 +4086,845 @@
       <c r="O64">
         <v>0</v>
       </c>
-      <c r="S64" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="65" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S64" s="55" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" customFormat="1">
       <c r="B65">
         <v>55</v>
       </c>
       <c r="C65" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D65" s="3">
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="G65">
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="O65">
         <v>0</v>
       </c>
       <c r="S65" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="66" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="2:19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="81" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="83" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="84" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="86" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="89" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="90" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="91" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="92" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="93" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="94" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="95" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="96" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="97" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="98" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="99" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="100" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="101" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="102" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="103" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="104" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="105" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="106" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="107" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="108" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="109" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="110" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="111" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="112" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="113" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="114" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="115" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="116" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="117" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="118" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="119" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="120" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="121" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="122" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="123" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="124" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="125" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="126" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="127" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="128" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="129" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="130" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="131" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="132" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="133" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="134" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="135" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="136" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="137" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="138" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="139" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="140" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="141" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="142" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="143" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="144" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="145" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="146" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="147" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="148" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="149" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="150" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="151" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="152" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="153" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="154" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="155" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="156" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="157" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="158" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="159" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="160" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="161" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="162" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="163" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="164" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="165" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="166" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="167" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="168" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="169" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="170" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="171" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="172" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="173" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="174" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="175" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="176" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="177" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="178" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="179" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="180" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="181" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="182" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="183" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="184" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="185" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="186" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="187" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="188" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="189" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="190" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="191" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="192" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="193" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="194" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="195" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="196" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="197" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="198" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="199" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="200" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="201" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="202" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="203" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="204" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="205" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="206" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="207" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="208" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="209" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="210" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="211" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="212" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="213" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="214" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="215" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="216" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="217" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="218" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="219" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="220" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="221" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="222" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="223" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="224" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="225" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="226" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="227" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="228" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="229" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="230" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="231" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="232" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="233" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="234" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="235" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="236" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="237" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="238" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="239" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="240" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="241" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="242" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="243" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="244" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="245" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="246" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="247" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="248" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="249" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="250" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="251" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="252" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="253" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="254" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="255" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="256" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="257" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="258" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="259" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="260" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="261" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="262" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="263" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="264" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="265" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="266" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="267" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="268" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="269" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="270" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="271" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="272" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="273" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="274" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="275" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="276" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="277" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="278" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="279" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="280" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="281" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="282" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="283" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="284" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="285" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="286" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="287" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="288" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="289" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="290" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="291" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="292" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="293" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="294" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="295" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="296" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="297" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="298" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="299" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="300" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="301" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="302" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="303" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="304" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="305" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="306" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="307" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="308" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="309" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="310" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="311" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="312" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="313" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="314" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="315" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="316" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="317" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="318" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="319" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="320" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="321" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="322" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="323" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="324" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="325" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="326" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="327" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="328" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="329" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="330" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="331" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="332" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="333" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="334" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="335" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="336" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="337" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="338" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="339" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="340" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="341" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="342" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="343" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="344" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="345" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="346" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="347" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="348" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="349" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="350" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="351" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="352" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="353" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="354" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="355" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="356" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="357" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="358" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="359" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="360" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="361" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="362" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="363" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="364" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="365" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="366" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="367" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="368" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="369" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="370" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="371" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="372" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="373" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="374" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="375" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="376" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="377" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="378" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="379" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="380" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="381" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="382" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="383" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="384" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="385" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="386" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="387" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="388" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="389" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="390" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="391" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="392" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="393" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="394" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="395" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="396" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="397" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="398" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="399" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="400" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="401" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="402" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="403" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="404" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="405" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="406" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="407" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="408" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="409" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="410" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="411" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="412" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="413" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="414" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="415" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="416" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="417" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="418" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="419" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="420" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="421" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="422" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="423" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="424" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="425" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="426" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="427" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="428" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="429" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="430" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="431" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="432" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="433" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="434" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="435" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="436" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="437" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="438" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="439" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="440" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="441" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="442" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="443" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="444" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="445" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="446" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="447" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="448" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="449" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="450" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="451" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="452" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="453" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="454" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="455" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="456" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="457" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="458" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="459" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="460" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="461" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="462" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="463" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="464" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="465" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="466" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="467" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="468" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="469" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="470" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="471" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="472" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="473" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="474" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="475" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="476" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="477" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="478" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="479" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="480" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="481" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="482" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="483" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="484" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="485" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="486" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="487" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="488" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="489" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="490" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="491" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="492" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="493" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="494" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="495" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="496" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="497" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="498" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="499" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="500" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="501" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="502" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="503" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="504" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="505" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="506" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="507" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="508" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="509" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="510" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="511" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="512" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="513" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="514" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="515" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="516" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="517" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="518" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="519" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="520" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="521" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="522" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="523" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="524" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="525" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="526" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="527" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="528" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="529" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="530" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="531" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="532" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="533" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="534" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="535" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="536" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="537" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="538" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="539" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="540" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="541" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="542" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="543" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="544" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="545" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="546" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="547" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="548" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="549" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="550" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="551" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="552" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="553" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="554" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="555" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="556" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="557" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="558" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="559" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="560" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="561" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="562" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="563" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="564" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="565" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="566" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="567" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="568" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="569" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="570" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="571" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="572" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="573" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="574" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="575" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="576" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="577" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="578" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="579" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="580" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="581" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="582" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="583" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="584" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="585" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="586" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="587" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="588" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="589" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="590" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="591" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="592" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" customFormat="1" ht="13.9"/>
+    <row r="67" spans="2:19" customFormat="1" ht="13.9"/>
+    <row r="68" spans="2:19" customFormat="1" ht="13.9"/>
+    <row r="69" spans="2:19" customFormat="1" ht="13.9"/>
+    <row r="70" spans="2:19" customFormat="1" ht="13.9"/>
+    <row r="71" spans="2:19" customFormat="1" ht="13.9"/>
+    <row r="72" spans="2:19" customFormat="1" ht="13.9"/>
+    <row r="73" spans="2:19" customFormat="1" ht="13.9"/>
+    <row r="74" spans="2:19" customFormat="1" ht="13.9"/>
+    <row r="75" spans="2:19" customFormat="1" ht="13.9"/>
+    <row r="76" spans="2:19" customFormat="1" ht="13.9"/>
+    <row r="77" spans="2:19" customFormat="1" ht="13.9"/>
+    <row r="78" spans="2:19" customFormat="1" ht="13.9"/>
+    <row r="79" spans="2:19" customFormat="1" ht="13.9"/>
+    <row r="80" spans="2:19" customFormat="1" ht="13.9"/>
+    <row r="81" customFormat="1" ht="13.9"/>
+    <row r="82" customFormat="1" ht="13.9"/>
+    <row r="83" customFormat="1" ht="13.9"/>
+    <row r="84" customFormat="1" ht="13.9"/>
+    <row r="85" customFormat="1" ht="13.9"/>
+    <row r="86" customFormat="1" ht="13.9"/>
+    <row r="87" customFormat="1" ht="13.9"/>
+    <row r="88" customFormat="1" ht="13.9"/>
+    <row r="89" customFormat="1" ht="13.9"/>
+    <row r="90" customFormat="1" ht="13.9"/>
+    <row r="91" customFormat="1" ht="13.9"/>
+    <row r="92" customFormat="1" ht="13.9"/>
+    <row r="93" customFormat="1" ht="13.9"/>
+    <row r="94" customFormat="1" ht="13.9"/>
+    <row r="95" customFormat="1" ht="13.9"/>
+    <row r="96" customFormat="1" ht="13.9"/>
+    <row r="97" customFormat="1" ht="13.9"/>
+    <row r="98" customFormat="1" ht="13.9"/>
+    <row r="99" customFormat="1" ht="13.9"/>
+    <row r="100" customFormat="1" ht="13.9"/>
+    <row r="101" customFormat="1" ht="13.9"/>
+    <row r="102" customFormat="1" ht="13.9"/>
+    <row r="103" customFormat="1" ht="13.9"/>
+    <row r="104" customFormat="1" ht="13.9"/>
+    <row r="105" customFormat="1" ht="13.9"/>
+    <row r="106" customFormat="1" ht="13.9"/>
+    <row r="107" customFormat="1" ht="13.9"/>
+    <row r="108" customFormat="1" ht="13.9"/>
+    <row r="109" customFormat="1" ht="13.9"/>
+    <row r="110" customFormat="1" ht="13.9"/>
+    <row r="111" customFormat="1" ht="13.9"/>
+    <row r="112" customFormat="1" ht="13.9"/>
+    <row r="113" customFormat="1" ht="13.9"/>
+    <row r="114" customFormat="1" ht="13.9"/>
+    <row r="115" customFormat="1" ht="13.9"/>
+    <row r="116" customFormat="1" ht="13.9"/>
+    <row r="117" customFormat="1" ht="13.9"/>
+    <row r="118" customFormat="1" ht="13.9"/>
+    <row r="119" customFormat="1" ht="13.9"/>
+    <row r="120" customFormat="1" ht="13.9"/>
+    <row r="121" customFormat="1" ht="13.9"/>
+    <row r="122" customFormat="1" ht="13.9"/>
+    <row r="123" customFormat="1" ht="13.9"/>
+    <row r="124" customFormat="1" ht="13.9"/>
+    <row r="125" customFormat="1" ht="13.9"/>
+    <row r="126" customFormat="1" ht="13.9"/>
+    <row r="127" customFormat="1" ht="13.9"/>
+    <row r="128" customFormat="1" ht="13.9"/>
+    <row r="129" customFormat="1" ht="13.9"/>
+    <row r="130" customFormat="1" ht="13.9"/>
+    <row r="131" customFormat="1" ht="13.9"/>
+    <row r="132" customFormat="1" ht="13.9"/>
+    <row r="133" customFormat="1" ht="13.9"/>
+    <row r="134" customFormat="1" ht="13.9"/>
+    <row r="135" customFormat="1" ht="13.9"/>
+    <row r="136" customFormat="1" ht="13.9"/>
+    <row r="137" customFormat="1" ht="13.9"/>
+    <row r="138" customFormat="1" ht="13.9"/>
+    <row r="139" customFormat="1" ht="13.9"/>
+    <row r="140" customFormat="1" ht="13.9"/>
+    <row r="141" customFormat="1" ht="13.9"/>
+    <row r="142" customFormat="1" ht="13.9"/>
+    <row r="143" customFormat="1" ht="13.9"/>
+    <row r="144" customFormat="1" ht="13.9"/>
+    <row r="145" customFormat="1" ht="13.9"/>
+    <row r="146" customFormat="1" ht="13.9"/>
+    <row r="147" customFormat="1" ht="13.9"/>
+    <row r="148" customFormat="1" ht="13.9"/>
+    <row r="149" customFormat="1" ht="13.9"/>
+    <row r="150" customFormat="1" ht="13.9"/>
+    <row r="151" customFormat="1" ht="13.9"/>
+    <row r="152" customFormat="1" ht="13.9"/>
+    <row r="153" customFormat="1" ht="13.9"/>
+    <row r="154" customFormat="1" ht="13.9"/>
+    <row r="155" customFormat="1" ht="13.9"/>
+    <row r="156" customFormat="1" ht="13.9"/>
+    <row r="157" customFormat="1" ht="13.9"/>
+    <row r="158" customFormat="1" ht="13.9"/>
+    <row r="159" customFormat="1" ht="13.9"/>
+    <row r="160" customFormat="1" ht="13.9"/>
+    <row r="161" customFormat="1" ht="13.9"/>
+    <row r="162" customFormat="1" ht="13.9"/>
+    <row r="163" customFormat="1" ht="13.9"/>
+    <row r="164" customFormat="1" ht="13.9"/>
+    <row r="165" customFormat="1" ht="13.9"/>
+    <row r="166" customFormat="1" ht="13.9"/>
+    <row r="167" customFormat="1" ht="13.9"/>
+    <row r="168" customFormat="1" ht="13.9"/>
+    <row r="169" customFormat="1" ht="13.9"/>
+    <row r="170" customFormat="1" ht="13.9"/>
+    <row r="171" customFormat="1" ht="13.9"/>
+    <row r="172" customFormat="1" ht="13.9"/>
+    <row r="173" customFormat="1" ht="13.9"/>
+    <row r="174" customFormat="1" ht="13.9"/>
+    <row r="175" customFormat="1" ht="13.9"/>
+    <row r="176" customFormat="1" ht="13.9"/>
+    <row r="177" customFormat="1" ht="13.9"/>
+    <row r="178" customFormat="1" ht="13.9"/>
+    <row r="179" customFormat="1" ht="13.9"/>
+    <row r="180" customFormat="1" ht="13.9"/>
+    <row r="181" customFormat="1" ht="13.9"/>
+    <row r="182" customFormat="1" ht="13.9"/>
+    <row r="183" customFormat="1" ht="13.9"/>
+    <row r="184" customFormat="1" ht="13.9"/>
+    <row r="185" customFormat="1" ht="13.9"/>
+    <row r="186" customFormat="1" ht="13.9"/>
+    <row r="187" customFormat="1" ht="13.9"/>
+    <row r="188" customFormat="1" ht="13.9"/>
+    <row r="189" customFormat="1" ht="13.9"/>
+    <row r="190" customFormat="1" ht="13.9"/>
+    <row r="191" customFormat="1" ht="13.9"/>
+    <row r="192" customFormat="1" ht="13.9"/>
+    <row r="193" customFormat="1" ht="13.9"/>
+    <row r="194" customFormat="1" ht="13.9"/>
+    <row r="195" customFormat="1" ht="13.9"/>
+    <row r="196" customFormat="1" ht="13.9"/>
+    <row r="197" customFormat="1" ht="13.9"/>
+    <row r="198" customFormat="1" ht="13.9"/>
+    <row r="199" customFormat="1" ht="13.9"/>
+    <row r="200" customFormat="1" ht="13.9"/>
+    <row r="201" customFormat="1" ht="13.9"/>
+    <row r="202" customFormat="1" ht="13.9"/>
+    <row r="203" customFormat="1" ht="13.9"/>
+    <row r="204" customFormat="1" ht="13.9"/>
+    <row r="205" customFormat="1" ht="13.9"/>
+    <row r="206" customFormat="1" ht="13.9"/>
+    <row r="207" customFormat="1" ht="13.9"/>
+    <row r="208" customFormat="1" ht="13.9"/>
+    <row r="209" customFormat="1" ht="13.9"/>
+    <row r="210" customFormat="1" ht="13.9"/>
+    <row r="211" customFormat="1" ht="13.9"/>
+    <row r="212" customFormat="1" ht="13.9"/>
+    <row r="213" customFormat="1" ht="13.9"/>
+    <row r="214" customFormat="1" ht="13.9"/>
+    <row r="215" customFormat="1" ht="13.9"/>
+    <row r="216" customFormat="1" ht="13.9"/>
+    <row r="217" customFormat="1" ht="13.9"/>
+    <row r="218" customFormat="1" ht="13.9"/>
+    <row r="219" customFormat="1" ht="13.9"/>
+    <row r="220" customFormat="1" ht="13.9"/>
+    <row r="221" customFormat="1" ht="13.9"/>
+    <row r="222" customFormat="1" ht="13.9"/>
+    <row r="223" customFormat="1" ht="13.9"/>
+    <row r="224" customFormat="1" ht="13.9"/>
+    <row r="225" customFormat="1" ht="13.9"/>
+    <row r="226" customFormat="1" ht="13.9"/>
+    <row r="227" customFormat="1" ht="13.9"/>
+    <row r="228" customFormat="1" ht="13.9"/>
+    <row r="229" customFormat="1" ht="13.9"/>
+    <row r="230" customFormat="1" ht="13.9"/>
+    <row r="231" customFormat="1" ht="13.9"/>
+    <row r="232" customFormat="1" ht="13.9"/>
+    <row r="233" customFormat="1" ht="13.9"/>
+    <row r="234" customFormat="1" ht="13.9"/>
+    <row r="235" customFormat="1" ht="13.9"/>
+    <row r="236" customFormat="1" ht="13.9"/>
+    <row r="237" customFormat="1" ht="13.9"/>
+    <row r="238" customFormat="1" ht="13.9"/>
+    <row r="239" customFormat="1" ht="13.9"/>
+    <row r="240" customFormat="1" ht="13.9"/>
+    <row r="241" customFormat="1" ht="13.9"/>
+    <row r="242" customFormat="1" ht="13.9"/>
+    <row r="243" customFormat="1" ht="13.9"/>
+    <row r="244" customFormat="1" ht="13.9"/>
+    <row r="245" customFormat="1" ht="13.9"/>
+    <row r="246" customFormat="1" ht="13.9"/>
+    <row r="247" customFormat="1" ht="13.9"/>
+    <row r="248" customFormat="1" ht="13.9"/>
+    <row r="249" customFormat="1" ht="13.9"/>
+    <row r="250" customFormat="1" ht="13.9"/>
+    <row r="251" customFormat="1" ht="13.9"/>
+    <row r="252" customFormat="1" ht="13.9"/>
+    <row r="253" customFormat="1" ht="13.9"/>
+    <row r="254" customFormat="1" ht="13.9"/>
+    <row r="255" customFormat="1" ht="13.9"/>
+    <row r="256" customFormat="1" ht="13.9"/>
+    <row r="257" customFormat="1" ht="13.9"/>
+    <row r="258" customFormat="1" ht="13.9"/>
+    <row r="259" customFormat="1" ht="13.9"/>
+    <row r="260" customFormat="1" ht="13.9"/>
+    <row r="261" customFormat="1" ht="13.9"/>
+    <row r="262" customFormat="1" ht="13.9"/>
+    <row r="263" customFormat="1" ht="13.9"/>
+    <row r="264" customFormat="1" ht="13.9"/>
+    <row r="265" customFormat="1" ht="13.9"/>
+    <row r="266" customFormat="1" ht="13.9"/>
+    <row r="267" customFormat="1" ht="13.9"/>
+    <row r="268" customFormat="1" ht="13.9"/>
+    <row r="269" customFormat="1" ht="13.9"/>
+    <row r="270" customFormat="1" ht="13.9"/>
+    <row r="271" customFormat="1" ht="13.9"/>
+    <row r="272" customFormat="1" ht="13.9"/>
+    <row r="273" customFormat="1" ht="13.9"/>
+    <row r="274" customFormat="1" ht="13.9"/>
+    <row r="275" customFormat="1" ht="13.9"/>
+    <row r="276" customFormat="1" ht="13.9"/>
+    <row r="277" customFormat="1" ht="13.9"/>
+    <row r="278" customFormat="1" ht="13.9"/>
+    <row r="279" customFormat="1" ht="13.9"/>
+    <row r="280" customFormat="1" ht="13.9"/>
+    <row r="281" customFormat="1" ht="13.9"/>
+    <row r="282" customFormat="1" ht="13.9"/>
+    <row r="283" customFormat="1" ht="13.9"/>
+    <row r="284" customFormat="1" ht="13.9"/>
+    <row r="285" customFormat="1" ht="13.9"/>
+    <row r="286" customFormat="1" ht="13.9"/>
+    <row r="287" customFormat="1" ht="13.9"/>
+    <row r="288" customFormat="1" ht="13.9"/>
+    <row r="289" customFormat="1" ht="13.9"/>
+    <row r="290" customFormat="1" ht="13.9"/>
+    <row r="291" customFormat="1" ht="13.9"/>
+    <row r="292" customFormat="1" ht="13.9"/>
+    <row r="293" customFormat="1" ht="13.9"/>
+    <row r="294" customFormat="1" ht="13.9"/>
+    <row r="295" customFormat="1" ht="13.9"/>
+    <row r="296" customFormat="1" ht="13.9"/>
+    <row r="297" customFormat="1" ht="13.9"/>
+    <row r="298" customFormat="1" ht="13.9"/>
+    <row r="299" customFormat="1" ht="13.9"/>
+    <row r="300" customFormat="1" ht="13.9"/>
+    <row r="301" customFormat="1" ht="13.9"/>
+    <row r="302" customFormat="1" ht="13.9"/>
+    <row r="303" customFormat="1" ht="13.9"/>
+    <row r="304" customFormat="1" ht="13.9"/>
+    <row r="305" customFormat="1" ht="13.9"/>
+    <row r="306" customFormat="1" ht="13.9"/>
+    <row r="307" customFormat="1" ht="13.9"/>
+    <row r="308" customFormat="1" ht="13.9"/>
+    <row r="309" customFormat="1" ht="13.9"/>
+    <row r="310" customFormat="1" ht="13.9"/>
+    <row r="311" customFormat="1" ht="13.9"/>
+    <row r="312" customFormat="1" ht="13.9"/>
+    <row r="313" customFormat="1" ht="13.9"/>
+    <row r="314" customFormat="1" ht="13.9"/>
+    <row r="315" customFormat="1" ht="13.9"/>
+    <row r="316" customFormat="1" ht="13.9"/>
+    <row r="317" customFormat="1" ht="13.9"/>
+    <row r="318" customFormat="1" ht="13.9"/>
+    <row r="319" customFormat="1" ht="13.9"/>
+    <row r="320" customFormat="1" ht="13.9"/>
+    <row r="321" customFormat="1" ht="13.9"/>
+    <row r="322" customFormat="1" ht="13.9"/>
+    <row r="323" customFormat="1" ht="13.9"/>
+    <row r="324" customFormat="1" ht="13.9"/>
+    <row r="325" customFormat="1" ht="13.9"/>
+    <row r="326" customFormat="1" ht="13.9"/>
+    <row r="327" customFormat="1" ht="13.9"/>
+    <row r="328" customFormat="1" ht="13.9"/>
+    <row r="329" customFormat="1" ht="13.9"/>
+    <row r="330" customFormat="1" ht="13.9"/>
+    <row r="331" customFormat="1" ht="13.9"/>
+    <row r="332" customFormat="1" ht="13.9"/>
+    <row r="333" customFormat="1" ht="13.9"/>
+    <row r="334" customFormat="1" ht="13.9"/>
+    <row r="335" customFormat="1" ht="13.9"/>
+    <row r="336" customFormat="1" ht="13.9"/>
+    <row r="337" customFormat="1" ht="13.9"/>
+    <row r="338" customFormat="1" ht="13.9"/>
+    <row r="339" customFormat="1" ht="13.9"/>
+    <row r="340" customFormat="1" ht="13.9"/>
+    <row r="341" customFormat="1" ht="13.9"/>
+    <row r="342" customFormat="1" ht="13.9"/>
+    <row r="343" customFormat="1" ht="13.9"/>
+    <row r="344" customFormat="1" ht="13.9"/>
+    <row r="345" customFormat="1" ht="13.9"/>
+    <row r="346" customFormat="1" ht="13.9"/>
+    <row r="347" customFormat="1" ht="13.9"/>
+    <row r="348" customFormat="1" ht="13.9"/>
+    <row r="349" customFormat="1" ht="13.9"/>
+    <row r="350" customFormat="1" ht="13.9"/>
+    <row r="351" customFormat="1" ht="13.9"/>
+    <row r="352" customFormat="1" ht="13.9"/>
+    <row r="353" customFormat="1" ht="13.9"/>
+    <row r="354" customFormat="1" ht="13.9"/>
+    <row r="355" customFormat="1" ht="13.9"/>
+    <row r="356" customFormat="1" ht="13.9"/>
+    <row r="357" customFormat="1" ht="13.9"/>
+    <row r="358" customFormat="1" ht="13.9"/>
+    <row r="359" customFormat="1" ht="13.9"/>
+    <row r="360" customFormat="1" ht="13.9"/>
+    <row r="361" customFormat="1" ht="13.9"/>
+    <row r="362" customFormat="1" ht="13.9"/>
+    <row r="363" customFormat="1" ht="13.9"/>
+    <row r="364" customFormat="1" ht="13.9"/>
+    <row r="365" customFormat="1" ht="13.9"/>
+    <row r="366" customFormat="1" ht="13.9"/>
+    <row r="367" customFormat="1" ht="13.9"/>
+    <row r="368" customFormat="1" ht="13.9"/>
+    <row r="369" customFormat="1" ht="13.9"/>
+    <row r="370" customFormat="1" ht="13.9"/>
+    <row r="371" customFormat="1" ht="13.9"/>
+    <row r="372" customFormat="1" ht="13.9"/>
+    <row r="373" customFormat="1" ht="13.9"/>
+    <row r="374" customFormat="1" ht="13.9"/>
+    <row r="375" customFormat="1" ht="13.9"/>
+    <row r="376" customFormat="1" ht="13.9"/>
+    <row r="377" customFormat="1" ht="13.9"/>
+    <row r="378" customFormat="1" ht="13.9"/>
+    <row r="379" customFormat="1" ht="13.9"/>
+    <row r="380" customFormat="1" ht="13.9"/>
+    <row r="381" customFormat="1" ht="13.9"/>
+    <row r="382" customFormat="1" ht="13.9"/>
+    <row r="383" customFormat="1" ht="13.9"/>
+    <row r="384" customFormat="1" ht="13.9"/>
+    <row r="385" customFormat="1" ht="13.9"/>
+    <row r="386" customFormat="1" ht="13.9"/>
+    <row r="387" customFormat="1" ht="13.9"/>
+    <row r="388" customFormat="1" ht="13.9"/>
+    <row r="389" customFormat="1" ht="13.9"/>
+    <row r="390" customFormat="1" ht="13.9"/>
+    <row r="391" customFormat="1" ht="13.9"/>
+    <row r="392" customFormat="1" ht="13.9"/>
+    <row r="393" customFormat="1" ht="13.9"/>
+    <row r="394" customFormat="1" ht="13.9"/>
+    <row r="395" customFormat="1" ht="13.9"/>
+    <row r="396" customFormat="1" ht="13.9"/>
+    <row r="397" customFormat="1" ht="13.9"/>
+    <row r="398" customFormat="1" ht="13.9"/>
+    <row r="399" customFormat="1" ht="13.9"/>
+    <row r="400" customFormat="1" ht="13.9"/>
+    <row r="401" customFormat="1" ht="13.9"/>
+    <row r="402" customFormat="1" ht="13.9"/>
+    <row r="403" customFormat="1" ht="13.9"/>
+    <row r="404" customFormat="1" ht="13.9"/>
+    <row r="405" customFormat="1" ht="13.9"/>
+    <row r="406" customFormat="1" ht="13.9"/>
+    <row r="407" customFormat="1" ht="13.9"/>
+    <row r="408" customFormat="1" ht="13.9"/>
+    <row r="409" customFormat="1" ht="13.9"/>
+    <row r="410" customFormat="1" ht="13.9"/>
+    <row r="411" customFormat="1" ht="13.9"/>
+    <row r="412" customFormat="1" ht="13.9"/>
+    <row r="413" customFormat="1" ht="13.9"/>
+    <row r="414" customFormat="1" ht="13.9"/>
+    <row r="415" customFormat="1" ht="13.9"/>
+    <row r="416" customFormat="1" ht="13.9"/>
+    <row r="417" customFormat="1" ht="13.9"/>
+    <row r="418" customFormat="1" ht="13.9"/>
+    <row r="419" customFormat="1" ht="13.9"/>
+    <row r="420" customFormat="1" ht="13.9"/>
+    <row r="421" customFormat="1" ht="13.9"/>
+    <row r="422" customFormat="1" ht="13.9"/>
+    <row r="423" customFormat="1" ht="13.9"/>
+    <row r="424" customFormat="1" ht="13.9"/>
+    <row r="425" customFormat="1" ht="13.9"/>
+    <row r="426" customFormat="1" ht="13.9"/>
+    <row r="427" customFormat="1" ht="13.9"/>
+    <row r="428" customFormat="1" ht="13.9"/>
+    <row r="429" customFormat="1" ht="13.9"/>
+    <row r="430" customFormat="1" ht="13.9"/>
+    <row r="431" customFormat="1" ht="13.9"/>
+    <row r="432" customFormat="1" ht="13.9"/>
+    <row r="433" customFormat="1" ht="13.9"/>
+    <row r="434" customFormat="1" ht="13.9"/>
+    <row r="435" customFormat="1" ht="13.9"/>
+    <row r="436" customFormat="1" ht="13.9"/>
+    <row r="437" customFormat="1" ht="13.9"/>
+    <row r="438" customFormat="1" ht="13.9"/>
+    <row r="439" customFormat="1" ht="13.9"/>
+    <row r="440" customFormat="1" ht="13.9"/>
+    <row r="441" customFormat="1" ht="13.9"/>
+    <row r="442" customFormat="1" ht="13.9"/>
+    <row r="443" customFormat="1" ht="13.9"/>
+    <row r="444" customFormat="1" ht="13.9"/>
+    <row r="445" customFormat="1" ht="13.9"/>
+    <row r="446" customFormat="1" ht="13.9"/>
+    <row r="447" customFormat="1" ht="13.9"/>
+    <row r="448" customFormat="1" ht="13.9"/>
+    <row r="449" customFormat="1" ht="13.9"/>
+    <row r="450" customFormat="1" ht="13.9"/>
+    <row r="451" customFormat="1" ht="13.9"/>
+    <row r="452" customFormat="1" ht="13.9"/>
+    <row r="453" customFormat="1" ht="13.9"/>
+    <row r="454" customFormat="1" ht="13.9"/>
+    <row r="455" customFormat="1" ht="13.9"/>
+    <row r="456" customFormat="1" ht="13.9"/>
+    <row r="457" customFormat="1" ht="13.9"/>
+    <row r="458" customFormat="1" ht="13.9"/>
+    <row r="459" customFormat="1" ht="13.9"/>
+    <row r="460" customFormat="1" ht="13.9"/>
+    <row r="461" customFormat="1" ht="13.9"/>
+    <row r="462" customFormat="1" ht="13.9"/>
+    <row r="463" customFormat="1" ht="13.9"/>
+    <row r="464" customFormat="1" ht="13.9"/>
+    <row r="465" customFormat="1" ht="13.9"/>
+    <row r="466" customFormat="1" ht="13.9"/>
+    <row r="467" customFormat="1" ht="13.9"/>
+    <row r="468" customFormat="1" ht="13.9"/>
+    <row r="469" customFormat="1" ht="13.9"/>
+    <row r="470" customFormat="1" ht="13.9"/>
+    <row r="471" customFormat="1" ht="13.9"/>
+    <row r="472" customFormat="1" ht="13.9"/>
+    <row r="473" customFormat="1" ht="13.9"/>
+    <row r="474" customFormat="1" ht="13.9"/>
+    <row r="475" customFormat="1" ht="13.9"/>
+    <row r="476" customFormat="1" ht="13.9"/>
+    <row r="477" customFormat="1" ht="13.9"/>
+    <row r="478" customFormat="1" ht="13.9"/>
+    <row r="479" customFormat="1" ht="13.9"/>
+    <row r="480" customFormat="1" ht="13.9"/>
+    <row r="481" customFormat="1" ht="13.9"/>
+    <row r="482" customFormat="1" ht="13.9"/>
+    <row r="483" customFormat="1" ht="13.9"/>
+    <row r="484" customFormat="1" ht="13.9"/>
+    <row r="485" customFormat="1" ht="13.9"/>
+    <row r="486" customFormat="1" ht="13.9"/>
+    <row r="487" customFormat="1" ht="13.9"/>
+    <row r="488" customFormat="1" ht="13.9"/>
+    <row r="489" customFormat="1" ht="13.9"/>
+    <row r="490" customFormat="1" ht="13.9"/>
+    <row r="491" customFormat="1" ht="13.9"/>
+    <row r="492" customFormat="1" ht="13.9"/>
+    <row r="493" customFormat="1" ht="13.9"/>
+    <row r="494" customFormat="1" ht="13.9"/>
+    <row r="495" customFormat="1" ht="13.9"/>
+    <row r="496" customFormat="1" ht="13.9"/>
+    <row r="497" customFormat="1" ht="13.9"/>
+    <row r="498" customFormat="1" ht="13.9"/>
+    <row r="499" customFormat="1" ht="13.9"/>
+    <row r="500" customFormat="1" ht="13.9"/>
+    <row r="501" customFormat="1" ht="13.9"/>
+    <row r="502" customFormat="1" ht="13.9"/>
+    <row r="503" customFormat="1" ht="13.9"/>
+    <row r="504" customFormat="1" ht="13.9"/>
+    <row r="505" customFormat="1" ht="13.9"/>
+    <row r="506" customFormat="1" ht="13.9"/>
+    <row r="507" customFormat="1" ht="13.9"/>
+    <row r="508" customFormat="1" ht="13.9"/>
+    <row r="509" customFormat="1" ht="13.9"/>
+    <row r="510" customFormat="1" ht="13.9"/>
+    <row r="511" customFormat="1" ht="13.9"/>
+    <row r="512" customFormat="1" ht="13.9"/>
+    <row r="513" customFormat="1" ht="13.9"/>
+    <row r="514" customFormat="1" ht="13.9"/>
+    <row r="515" customFormat="1" ht="13.9"/>
+    <row r="516" customFormat="1" ht="13.9"/>
+    <row r="517" customFormat="1" ht="13.9"/>
+    <row r="518" customFormat="1" ht="13.9"/>
+    <row r="519" customFormat="1" ht="13.9"/>
+    <row r="520" customFormat="1" ht="13.9"/>
+    <row r="521" customFormat="1" ht="13.9"/>
+    <row r="522" customFormat="1" ht="13.9"/>
+    <row r="523" customFormat="1" ht="13.9"/>
+    <row r="524" customFormat="1" ht="13.9"/>
+    <row r="525" customFormat="1" ht="13.9"/>
+    <row r="526" customFormat="1" ht="13.9"/>
+    <row r="527" customFormat="1" ht="13.9"/>
+    <row r="528" customFormat="1" ht="13.9"/>
+    <row r="529" customFormat="1" ht="13.9"/>
+    <row r="530" customFormat="1" ht="13.9"/>
+    <row r="531" customFormat="1" ht="13.9"/>
+    <row r="532" customFormat="1" ht="13.9"/>
+    <row r="533" customFormat="1" ht="13.9"/>
+    <row r="534" customFormat="1" ht="13.9"/>
+    <row r="535" customFormat="1" ht="13.9"/>
+    <row r="536" customFormat="1" ht="13.9"/>
+    <row r="537" customFormat="1" ht="13.9"/>
+    <row r="538" customFormat="1" ht="13.9"/>
+    <row r="539" customFormat="1" ht="13.9"/>
+    <row r="540" customFormat="1" ht="13.9"/>
+    <row r="541" customFormat="1" ht="13.9"/>
+    <row r="542" customFormat="1" ht="13.9"/>
+    <row r="543" customFormat="1" ht="13.9"/>
+    <row r="544" customFormat="1" ht="13.9"/>
+    <row r="545" customFormat="1" ht="13.9"/>
+    <row r="546" customFormat="1" ht="13.9"/>
+    <row r="547" customFormat="1" ht="13.9"/>
+    <row r="548" customFormat="1" ht="13.9"/>
+    <row r="549" customFormat="1" ht="13.9"/>
+    <row r="550" customFormat="1" ht="13.9"/>
+    <row r="551" customFormat="1" ht="13.9"/>
+    <row r="552" customFormat="1" ht="13.9"/>
+    <row r="553" customFormat="1" ht="13.9"/>
+    <row r="554" customFormat="1" ht="13.9"/>
+    <row r="555" customFormat="1" ht="13.9"/>
+    <row r="556" customFormat="1" ht="13.9"/>
+    <row r="557" customFormat="1" ht="13.9"/>
+    <row r="558" customFormat="1" ht="13.9"/>
+    <row r="559" customFormat="1" ht="13.9"/>
+    <row r="560" customFormat="1" ht="13.9"/>
+    <row r="561" customFormat="1" ht="13.9"/>
+    <row r="562" customFormat="1" ht="13.9"/>
+    <row r="563" customFormat="1" ht="13.9"/>
+    <row r="564" customFormat="1" ht="13.9"/>
+    <row r="565" customFormat="1" ht="13.9"/>
+    <row r="566" customFormat="1" ht="13.9"/>
+    <row r="567" customFormat="1" ht="13.9"/>
+    <row r="568" customFormat="1" ht="13.9"/>
+    <row r="569" customFormat="1" ht="13.9"/>
+    <row r="570" customFormat="1" ht="13.9"/>
+    <row r="571" customFormat="1" ht="13.9"/>
+    <row r="572" customFormat="1" ht="13.9"/>
+    <row r="573" customFormat="1" ht="13.9"/>
+    <row r="574" customFormat="1" ht="13.9"/>
+    <row r="575" customFormat="1" ht="13.9"/>
+    <row r="576" customFormat="1" ht="13.9"/>
+    <row r="577" customFormat="1" ht="13.9"/>
+    <row r="578" customFormat="1" ht="13.9"/>
+    <row r="579" customFormat="1" ht="13.9"/>
+    <row r="580" customFormat="1" ht="13.9"/>
+    <row r="581" customFormat="1" ht="13.9"/>
+    <row r="582" customFormat="1" ht="13.9"/>
+    <row r="583" customFormat="1" ht="13.9"/>
+    <row r="584" customFormat="1" ht="13.9"/>
+    <row r="585" customFormat="1" ht="13.9"/>
+    <row r="586" customFormat="1" ht="13.9"/>
+    <row r="587" customFormat="1" ht="13.9"/>
+    <row r="588" customFormat="1" ht="13.9"/>
+    <row r="589" customFormat="1" ht="13.9"/>
+    <row r="590" customFormat="1" ht="13.9"/>
+    <row r="591" customFormat="1" ht="13.9"/>
+    <row r="592" customFormat="1" ht="13.9"/>
   </sheetData>
   <autoFilter ref="A12:T109" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="10">
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="U8:U9"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="Y63:AB63"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="U8:U9"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100A88CAFCDD905914F9859B866779FB273" ma:contentTypeVersion="14" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="a12f2668910f9c286332414dc4642d72">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="33099055-14f1-4e17-909b-e84f33397fd8" xmlns:ns4="ae1ce8b7-877d-40fe-b69c-92d211b74b4f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4f513c6556966def303e10875520ebb" ns3:_="" ns4:_="">
+    <xsd:import namespace="33099055-14f1-4e17-909b-e84f33397fd8"/>
+    <xsd:import namespace="ae1ce8b7-877d-40fe-b69c-92d211b74b4f"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="33099055-14f1-4e17-909b-e84f33397fd8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="MediaServiceLocation" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ae1ce8b7-877d-40fe-b69c-92d211b74b4f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="共享对象:" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="共享对象详细信息" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="18" nillable="true" ma:displayName="共享提示哈希" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="内容类型"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="标题"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C7925F9-42F2-41C6-BA32-BCC0300D4F9E}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5353D62B-5B83-4E05-8488-F321EC8FE082}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6CFBEE2-C019-473D-A79A-0E90CB092681}"/>
 </file>